--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAA30FF-6CC9-C24F-9B74-3028761D54AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE0DE43-AB3A-904F-80DE-F90AAEF7E713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="1646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1651">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -4958,13 +4958,28 @@
   </si>
   <si>
     <t>http://arenapsgm.ru/action/tproduct/485185323262-mafia-3-ps4ps5</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Modifications</t>
+  </si>
+  <si>
+    <t>Url</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4979,6 +4994,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4988,12 +5011,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -5004,11 +5042,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5349,10 +5390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E495"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B468" sqref="B468"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5366,20 +5407,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="C1" s="2">
-        <v>490</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1622</v>
+      <c r="A1" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -13371,95 +13412,95 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>493</v>
+        <v>963</v>
       </c>
       <c r="C472" s="2">
-        <v>899</v>
+        <v>490</v>
       </c>
       <c r="D472" t="s">
-        <v>987</v>
+        <v>1140</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1151</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C473" s="2">
-        <v>290</v>
+        <v>899</v>
       </c>
       <c r="D473" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C474" s="2">
-        <v>539</v>
+        <v>290</v>
       </c>
       <c r="D474" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C475" s="2">
-        <v>449</v>
+        <v>539</v>
       </c>
       <c r="D475" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C476" s="2">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="D476" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C477" s="2">
         <v>359</v>
@@ -13468,15 +13509,15 @@
         <v>991</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C478" s="2">
         <v>359</v>
@@ -13485,270 +13526,270 @@
         <v>991</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>970</v>
+        <v>499</v>
       </c>
       <c r="C479" s="2">
-        <v>449</v>
+        <v>359</v>
       </c>
       <c r="D479" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1629</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C480" s="2">
-        <v>899</v>
+        <v>449</v>
       </c>
       <c r="D480" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C481" s="2">
-        <v>790</v>
+        <v>899</v>
       </c>
       <c r="D481" t="s">
-        <v>1143</v>
+        <v>1008</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>957</v>
+        <v>972</v>
       </c>
       <c r="C482" s="2">
-        <v>1514</v>
+        <v>790</v>
       </c>
       <c r="D482" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>1616</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="C483" s="2">
-        <v>289</v>
+        <v>1514</v>
       </c>
       <c r="D483" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>1640</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="C484" s="2">
-        <v>450</v>
+        <v>289</v>
       </c>
       <c r="D484" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>1634</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C485" s="2">
-        <v>639</v>
+        <v>450</v>
       </c>
       <c r="D485" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>937</v>
+        <v>977</v>
       </c>
       <c r="C486" s="2">
-        <v>939</v>
+        <v>639</v>
       </c>
       <c r="D486" t="s">
-        <v>1127</v>
+        <v>1147</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>1596</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C487" s="2">
-        <v>899</v>
+        <v>939</v>
       </c>
       <c r="D487" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>976</v>
+        <v>938</v>
       </c>
       <c r="C488" s="2">
         <v>899</v>
       </c>
       <c r="D488" t="s">
-        <v>1146</v>
+        <v>1128</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>1635</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C489" s="2">
-        <v>350</v>
+        <v>899</v>
       </c>
       <c r="D489" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C490" s="2">
         <v>350</v>
       </c>
       <c r="D490" t="s">
-        <v>1120</v>
+        <v>1144</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="C491" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="D491" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>965</v>
+        <v>982</v>
       </c>
       <c r="C492" s="2">
-        <v>349</v>
+        <v>499</v>
       </c>
       <c r="D492" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1624</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>983</v>
+        <v>965</v>
       </c>
       <c r="C493" s="2">
-        <v>499</v>
+        <v>349</v>
       </c>
       <c r="D493" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1642</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C494" s="2">
         <v>499</v>
@@ -13757,15 +13798,15 @@
         <v>1148</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="C495" s="2">
         <v>499</v>
@@ -13774,25 +13815,42 @@
         <v>1148</v>
       </c>
       <c r="E495" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>486</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C496" s="2">
+        <v>499</v>
+      </c>
+      <c r="D496" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E496" s="1" t="s">
         <v>1639</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B472" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E472" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B473" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E473" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B474" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E474" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B475" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E475" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B476" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E476" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B477" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E477" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B478" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E478" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B473" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E473" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B474" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E474" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B475" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E475" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B476" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E476" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B477" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E477" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B478" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E478" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B479" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E479" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
@@ -14669,10 +14727,10 @@
     <hyperlink ref="E445" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
     <hyperlink ref="B446" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
     <hyperlink ref="E446" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
-    <hyperlink ref="B486" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
-    <hyperlink ref="E486" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
-    <hyperlink ref="B487" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
-    <hyperlink ref="E487" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="B487" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="E487" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="B488" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="E488" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
     <hyperlink ref="B449" r:id="rId895" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
     <hyperlink ref="E449" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
     <hyperlink ref="B450" r:id="rId897" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
@@ -14709,8 +14767,8 @@
     <hyperlink ref="E465" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
     <hyperlink ref="B466" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
     <hyperlink ref="E466" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
-    <hyperlink ref="B482" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
-    <hyperlink ref="E482" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
+    <hyperlink ref="B483" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
+    <hyperlink ref="E483" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
     <hyperlink ref="B468" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
     <hyperlink ref="E468" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
     <hyperlink ref="B469" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
@@ -14721,12 +14779,12 @@
     <hyperlink ref="E471" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
     <hyperlink ref="B8" r:id="rId941" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
     <hyperlink ref="E8" r:id="rId942" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
-    <hyperlink ref="B1" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
-    <hyperlink ref="E1" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
+    <hyperlink ref="B472" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
+    <hyperlink ref="E472" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
     <hyperlink ref="B2" r:id="rId945" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
     <hyperlink ref="E2" r:id="rId946" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
-    <hyperlink ref="B492" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
-    <hyperlink ref="E492" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
+    <hyperlink ref="B493" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
+    <hyperlink ref="E493" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
     <hyperlink ref="B4" r:id="rId949" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
     <hyperlink ref="E4" r:id="rId950" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
     <hyperlink ref="B5" r:id="rId951" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
@@ -14735,36 +14793,36 @@
     <hyperlink ref="E6" r:id="rId954" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
     <hyperlink ref="B7" r:id="rId955" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
     <hyperlink ref="E7" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
-    <hyperlink ref="B479" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
-    <hyperlink ref="E479" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
-    <hyperlink ref="B480" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
-    <hyperlink ref="E480" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
-    <hyperlink ref="B481" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
-    <hyperlink ref="E481" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
-    <hyperlink ref="B490" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
-    <hyperlink ref="E490" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
-    <hyperlink ref="B489" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
-    <hyperlink ref="E489" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
-    <hyperlink ref="B484" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
-    <hyperlink ref="E484" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
-    <hyperlink ref="B488" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
-    <hyperlink ref="E488" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
-    <hyperlink ref="B485" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
-    <hyperlink ref="E485" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
+    <hyperlink ref="B480" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
+    <hyperlink ref="E480" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
+    <hyperlink ref="B481" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
+    <hyperlink ref="E481" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
+    <hyperlink ref="B482" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
+    <hyperlink ref="E482" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
+    <hyperlink ref="B491" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
+    <hyperlink ref="E491" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
+    <hyperlink ref="B490" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
+    <hyperlink ref="E490" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
+    <hyperlink ref="B485" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
+    <hyperlink ref="E485" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
+    <hyperlink ref="B489" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
+    <hyperlink ref="E489" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
+    <hyperlink ref="B486" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
+    <hyperlink ref="E486" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
     <hyperlink ref="B447" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
     <hyperlink ref="E447" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
     <hyperlink ref="B448" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
     <hyperlink ref="E448" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
-    <hyperlink ref="B495" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
-    <hyperlink ref="E495" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
-    <hyperlink ref="B483" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
-    <hyperlink ref="E483" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
-    <hyperlink ref="B491" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
-    <hyperlink ref="E491" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
-    <hyperlink ref="B493" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
-    <hyperlink ref="E493" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
-    <hyperlink ref="B494" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
-    <hyperlink ref="E494" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="B496" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
+    <hyperlink ref="E496" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="B484" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
+    <hyperlink ref="E484" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
+    <hyperlink ref="B492" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="E492" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="B494" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="E494" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="B495" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="E495" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
     <hyperlink ref="B3" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
     <hyperlink ref="E3" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
     <hyperlink ref="B467" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE0DE43-AB3A-904F-80DE-F90AAEF7E713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0652F8E6-95C9-5445-80C5-424A9F0706FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="1653">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -4973,6 +4973,12 @@
   </si>
   <si>
     <t>Url</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/konkurs33</t>
+  </si>
+  <si>
+    <t>Конкурс - информация на странице</t>
   </si>
 </sst>
 </file>
@@ -5390,10 +5396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E496"/>
+  <dimension ref="A1:E497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A480" zoomScale="137" workbookViewId="0">
+      <selection activeCell="A497" sqref="A497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13833,6 +13839,14 @@
       </c>
       <c r="E496" s="1" t="s">
         <v>1639</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E497" t="s">
+        <v>1651</v>
       </c>
     </row>
   </sheetData>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0652F8E6-95C9-5445-80C5-424A9F0706FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37652679-83F5-DF4D-AEDA-3F62883C5711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4978,7 +4978,7 @@
     <t>https://arenapsgm.ru/konkurs33</t>
   </si>
   <si>
-    <t>Конкурс - информация на странице</t>
+    <t>Конкурс - информация на странице. Как ознакомишься напиши мне "Привет" и мы поболтаем.</t>
   </si>
 </sst>
 </file>
@@ -5399,12 +5399,12 @@
   <dimension ref="A1:E497"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A480" zoomScale="137" workbookViewId="0">
-      <selection activeCell="A497" sqref="A497"/>
+      <selection activeCell="B503" sqref="B503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="85" customWidth="1"/>
     <col min="2" max="2" width="97.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="90.1640625" customWidth="1"/>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37652679-83F5-DF4D-AEDA-3F62883C5711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F4EDEC-0F2D-8343-B171-AF148C161E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="1653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1655">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -4979,6 +4979,12 @@
   </si>
   <si>
     <t>Конкурс - информация на странице. Как ознакомишься напиши мне "Привет" и мы поболтаем.</t>
+  </si>
+  <si>
+    <t>Карты оплаты разместили по этой ссылке.</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/cardplaystationnetwork</t>
   </si>
 </sst>
 </file>
@@ -5396,10 +5402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E497"/>
+  <dimension ref="A1:E498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A480" zoomScale="137" workbookViewId="0">
-      <selection activeCell="B503" sqref="B503"/>
+    <sheetView tabSelected="1" topLeftCell="D483" zoomScale="137" workbookViewId="0">
+      <selection activeCell="E501" sqref="E501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13847,6 +13853,14 @@
       </c>
       <c r="E497" t="s">
         <v>1651</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E498" t="s">
+        <v>1654</v>
       </c>
     </row>
   </sheetData>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F4EDEC-0F2D-8343-B171-AF148C161E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70EF082-A4A4-394A-B40A-5C282F1F95FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="1660">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -4985,6 +4985,21 @@
   </si>
   <si>
     <t>https://arenapsgm.ru/cardplaystationnetwork</t>
+  </si>
+  <si>
+    <t>Оплатил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">После оплаты выдача занимает около 15 минут, @ArenaPSGMadmin уже увидил чек и скоро все пришлет. </t>
+  </si>
+  <si>
+    <t>К некоторым играм код можно получить тут - https://arenapsgm.ru/noadmin2fa . Защитный пароль @ArenaPSGMadmin пришлет.</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Оплатила</t>
   </si>
 </sst>
 </file>
@@ -5402,10 +5417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E498"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D483" zoomScale="137" workbookViewId="0">
-      <selection activeCell="E501" sqref="E501"/>
+    <sheetView tabSelected="1" topLeftCell="C481" zoomScale="137" workbookViewId="0">
+      <selection activeCell="A504" sqref="A504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13861,6 +13876,30 @@
       </c>
       <c r="E498" t="s">
         <v>1654</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1656</v>
       </c>
     </row>
   </sheetData>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70EF082-A4A4-394A-B40A-5C282F1F95FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EFF071-1EA3-B842-BCA6-82FA8CCB7089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1655">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -4985,21 +4985,6 @@
   </si>
   <si>
     <t>https://arenapsgm.ru/cardplaystationnetwork</t>
-  </si>
-  <si>
-    <t>Оплатил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">После оплаты выдача занимает около 15 минут, @ArenaPSGMadmin уже увидил чек и скоро все пришлет. </t>
-  </si>
-  <si>
-    <t>К некоторым играм код можно получить тут - https://arenapsgm.ru/noadmin2fa . Защитный пароль @ArenaPSGMadmin пришлет.</t>
-  </si>
-  <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>Оплатила</t>
   </si>
 </sst>
 </file>
@@ -5417,10 +5402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E501"/>
+  <dimension ref="A1:E498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C481" zoomScale="137" workbookViewId="0">
-      <selection activeCell="A504" sqref="A504"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A505" sqref="A505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13876,30 +13861,6 @@
       </c>
       <c r="E498" t="s">
         <v>1654</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E499" t="s">
-        <v>1656</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A500" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E500" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A501" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E501" t="s">
-        <v>1656</v>
       </c>
     </row>
   </sheetData>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EFF071-1EA3-B842-BCA6-82FA8CCB7089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D2701E-734F-0848-9D96-6CD7E3E8D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1657">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -4985,6 +4985,12 @@
   </si>
   <si>
     <t>https://arenapsgm.ru/cardplaystationnetwork</t>
+  </si>
+  <si>
+    <t>Cities: VR - Enhanced Edition PS5</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/horror/tproduct/701307187392-cities-vr-ps5</t>
   </si>
 </sst>
 </file>
@@ -5402,10 +5408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E498"/>
+  <dimension ref="A1:E499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505"/>
+    <sheetView tabSelected="1" topLeftCell="D475" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E502" sqref="E502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13861,6 +13867,14 @@
       </c>
       <c r="E498" t="s">
         <v>1654</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1656</v>
       </c>
     </row>
   </sheetData>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D2701E-734F-0848-9D96-6CD7E3E8D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF81495-943A-144C-BFD3-DA29B014FA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1659">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -4991,6 +4991,12 @@
   </si>
   <si>
     <t>https://arenapsgm.ru/horror/tproduct/701307187392-cities-vr-ps5</t>
+  </si>
+  <si>
+    <t>RAFT PS5</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/newgame/tproduct/634814860882-raft-ps5</t>
   </si>
 </sst>
 </file>
@@ -5408,10 +5414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E499"/>
+  <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D475" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E502" sqref="E502"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E504" sqref="E504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13875,6 +13881,14 @@
       </c>
       <c r="E499" t="s">
         <v>1656</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1658</v>
       </c>
     </row>
   </sheetData>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF81495-943A-144C-BFD3-DA29B014FA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F544E7-A6DD-1F4E-805A-DDFE0C3FF8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5416,8 +5416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E504" sqref="E504"/>
+    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B448" sqref="B448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13130,783 +13130,783 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>450</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C454" s="2">
-        <v>250</v>
-      </c>
-      <c r="D454" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E454" s="1" t="s">
-        <v>1603</v>
+        <v>1652</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>451</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="C455" s="2">
-        <v>290</v>
-      </c>
-      <c r="D455" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E455" s="1" t="s">
-        <v>1604</v>
+        <v>1653</v>
+      </c>
+      <c r="E455" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>452</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="C456" s="2">
-        <v>359</v>
-      </c>
-      <c r="D456" t="s">
-        <v>995</v>
-      </c>
-      <c r="E456" s="1" t="s">
-        <v>1605</v>
+        <v>1655</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>453</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="C457" s="2">
-        <v>350</v>
-      </c>
-      <c r="D457" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>1606</v>
+        <v>1657</v>
+      </c>
+      <c r="E457" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C458" s="2">
-        <v>899</v>
+        <v>450</v>
       </c>
       <c r="D458" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>1607</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="C459" s="2">
-        <v>359</v>
+        <v>450</v>
       </c>
       <c r="D459" t="s">
-        <v>992</v>
+        <v>1134</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="C460" s="2">
-        <v>299</v>
+        <v>490</v>
       </c>
       <c r="D460" t="s">
-        <v>1012</v>
+        <v>1135</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>1609</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="C461" s="2">
-        <v>290</v>
+        <v>639</v>
       </c>
       <c r="D461" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1610</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C462" s="2">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="D462" t="s">
-        <v>1134</v>
+        <v>1011</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>1611</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>953</v>
+        <v>986</v>
       </c>
       <c r="C463" s="2">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="D463" t="s">
-        <v>1134</v>
+        <v>1028</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>1612</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="C464" s="2">
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="D464" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>1613</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="C465" s="2">
-        <v>639</v>
+        <v>250</v>
       </c>
       <c r="D465" t="s">
-        <v>1136</v>
+        <v>1028</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C466" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D466" t="s">
-        <v>1011</v>
+        <v>1028</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>986</v>
+        <v>961</v>
       </c>
       <c r="C467" s="2">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="D467" t="s">
-        <v>1028</v>
+        <v>1139</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>1645</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="C468" s="2">
-        <v>590</v>
+        <v>490</v>
       </c>
       <c r="D468" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="C469" s="2">
         <v>250</v>
       </c>
       <c r="D469" t="s">
-        <v>1028</v>
+        <v>1051</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>1618</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="C470" s="2">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D470" t="s">
-        <v>1028</v>
+        <v>1131</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>1619</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="C471" s="2">
-        <v>490</v>
+        <v>359</v>
       </c>
       <c r="D471" t="s">
-        <v>1139</v>
+        <v>995</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>1620</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="C472" s="2">
-        <v>490</v>
+        <v>350</v>
       </c>
       <c r="D472" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1622</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>493</v>
+        <v>948</v>
       </c>
       <c r="C473" s="2">
         <v>899</v>
       </c>
       <c r="D473" t="s">
-        <v>987</v>
+        <v>1128</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1151</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>1</v>
+        <v>455</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>494</v>
+        <v>949</v>
       </c>
       <c r="C474" s="2">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="D474" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1152</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>2</v>
+        <v>456</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>495</v>
+        <v>950</v>
       </c>
       <c r="C475" s="2">
-        <v>539</v>
+        <v>299</v>
       </c>
       <c r="D475" t="s">
-        <v>989</v>
+        <v>1012</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>1153</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C476" s="2">
-        <v>449</v>
+        <v>899</v>
       </c>
       <c r="D476" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>4</v>
+        <v>487</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>497</v>
+        <v>981</v>
       </c>
       <c r="C477" s="2">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="D477" t="s">
-        <v>991</v>
+        <v>1149</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>1155</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C478" s="2">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="D478" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>6</v>
+        <v>457</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>499</v>
+        <v>951</v>
       </c>
       <c r="C479" s="2">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="D479" t="s">
-        <v>991</v>
+        <v>1133</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1157</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>970</v>
+        <v>496</v>
       </c>
       <c r="C480" s="2">
         <v>449</v>
       </c>
       <c r="D480" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>1629</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>477</v>
+        <v>4</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>971</v>
+        <v>497</v>
       </c>
       <c r="C481" s="2">
-        <v>899</v>
+        <v>359</v>
       </c>
       <c r="D481" t="s">
-        <v>1008</v>
+        <v>991</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>1630</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>478</v>
+        <v>5</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>972</v>
+        <v>498</v>
       </c>
       <c r="C482" s="2">
-        <v>790</v>
+        <v>359</v>
       </c>
       <c r="D482" t="s">
-        <v>1143</v>
+        <v>991</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>1631</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>957</v>
+        <v>499</v>
       </c>
       <c r="C483" s="2">
-        <v>1514</v>
+        <v>359</v>
       </c>
       <c r="D483" t="s">
-        <v>1137</v>
+        <v>991</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>1616</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="C484" s="2">
-        <v>289</v>
+        <v>449</v>
       </c>
       <c r="D484" t="s">
-        <v>1149</v>
+        <v>1004</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>1640</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C485" s="2">
-        <v>450</v>
+        <v>899</v>
       </c>
       <c r="D485" t="s">
-        <v>1145</v>
+        <v>1008</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C486" s="2">
-        <v>639</v>
+        <v>790</v>
       </c>
       <c r="D486" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="C487" s="2">
-        <v>939</v>
+        <v>1514</v>
       </c>
       <c r="D487" t="s">
-        <v>1127</v>
+        <v>1137</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1596</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>938</v>
+        <v>495</v>
       </c>
       <c r="C488" s="2">
-        <v>899</v>
+        <v>539</v>
       </c>
       <c r="D488" t="s">
-        <v>1128</v>
+        <v>989</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>1597</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C489" s="2">
-        <v>899</v>
+        <v>450</v>
       </c>
       <c r="D489" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="C490" s="2">
-        <v>350</v>
+        <v>639</v>
       </c>
       <c r="D490" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>479</v>
+        <v>443</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>973</v>
+        <v>937</v>
       </c>
       <c r="C491" s="2">
-        <v>350</v>
+        <v>939</v>
       </c>
       <c r="D491" t="s">
-        <v>1120</v>
+        <v>1127</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1632</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C492" s="2">
-        <v>499</v>
+        <v>899</v>
       </c>
       <c r="D492" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1641</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>965</v>
+        <v>974</v>
       </c>
       <c r="C493" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D493" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1624</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="C494" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="D494" t="s">
-        <v>1148</v>
+        <v>1120</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1642</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C495" s="2">
         <v>499</v>
       </c>
       <c r="D495" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>980</v>
+        <v>965</v>
       </c>
       <c r="C496" s="2">
-        <v>499</v>
+        <v>349</v>
       </c>
       <c r="D496" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1639</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E497" t="s">
-        <v>1651</v>
+        <v>444</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C497" s="2">
+        <v>899</v>
+      </c>
+      <c r="D497" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E498" t="s">
-        <v>1654</v>
+        <v>489</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="C498" s="2">
+        <v>499</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1642</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E499" t="s">
-        <v>1656</v>
+        <v>490</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C499" s="2">
+        <v>499</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1643</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E500" t="s">
-        <v>1658</v>
+        <v>486</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C500" s="2">
+        <v>499</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1639</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B473" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E473" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B474" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E474" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B475" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E475" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B476" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E476" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B477" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E477" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B478" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E478" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B479" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E479" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B476" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E476" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B478" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E478" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B488" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E488" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B480" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E480" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B481" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E481" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B482" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E482" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B483" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E483" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
@@ -14783,10 +14783,10 @@
     <hyperlink ref="E445" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
     <hyperlink ref="B446" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
     <hyperlink ref="E446" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
-    <hyperlink ref="B487" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
-    <hyperlink ref="E487" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
-    <hyperlink ref="B488" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
-    <hyperlink ref="E488" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="B491" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="E491" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="B497" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="E497" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
     <hyperlink ref="B449" r:id="rId895" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
     <hyperlink ref="E449" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
     <hyperlink ref="B450" r:id="rId897" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
@@ -14797,50 +14797,50 @@
     <hyperlink ref="E452" r:id="rId902" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
     <hyperlink ref="B453" r:id="rId903" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
     <hyperlink ref="E453" r:id="rId904" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
-    <hyperlink ref="B454" r:id="rId905" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
-    <hyperlink ref="E454" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
-    <hyperlink ref="B455" r:id="rId907" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
-    <hyperlink ref="E455" r:id="rId908" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
-    <hyperlink ref="B456" r:id="rId909" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
-    <hyperlink ref="E456" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
-    <hyperlink ref="B457" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
-    <hyperlink ref="E457" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
-    <hyperlink ref="B458" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
-    <hyperlink ref="E458" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
-    <hyperlink ref="B459" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
-    <hyperlink ref="E459" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
-    <hyperlink ref="B460" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
-    <hyperlink ref="E460" r:id="rId918" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
-    <hyperlink ref="B461" r:id="rId919" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
-    <hyperlink ref="E461" r:id="rId920" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
-    <hyperlink ref="B462" r:id="rId921" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
-    <hyperlink ref="E462" r:id="rId922" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
-    <hyperlink ref="B463" r:id="rId923" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
-    <hyperlink ref="E463" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
-    <hyperlink ref="B464" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
-    <hyperlink ref="E464" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
-    <hyperlink ref="B465" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
-    <hyperlink ref="E465" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
-    <hyperlink ref="B466" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
-    <hyperlink ref="E466" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
-    <hyperlink ref="B483" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
-    <hyperlink ref="E483" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
-    <hyperlink ref="B468" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
-    <hyperlink ref="E468" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
-    <hyperlink ref="B469" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
-    <hyperlink ref="E469" r:id="rId936" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
-    <hyperlink ref="B470" r:id="rId937" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
-    <hyperlink ref="E470" r:id="rId938" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
-    <hyperlink ref="B471" r:id="rId939" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
-    <hyperlink ref="E471" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
+    <hyperlink ref="B469" r:id="rId905" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
+    <hyperlink ref="E469" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
+    <hyperlink ref="B470" r:id="rId907" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
+    <hyperlink ref="E470" r:id="rId908" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
+    <hyperlink ref="B471" r:id="rId909" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
+    <hyperlink ref="E471" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
+    <hyperlink ref="B472" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
+    <hyperlink ref="E472" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
+    <hyperlink ref="B473" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
+    <hyperlink ref="E473" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
+    <hyperlink ref="B474" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
+    <hyperlink ref="E474" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
+    <hyperlink ref="B475" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
+    <hyperlink ref="E475" r:id="rId918" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
+    <hyperlink ref="B479" r:id="rId919" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
+    <hyperlink ref="E479" r:id="rId920" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
+    <hyperlink ref="B458" r:id="rId921" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
+    <hyperlink ref="E458" r:id="rId922" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
+    <hyperlink ref="B459" r:id="rId923" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
+    <hyperlink ref="E459" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
+    <hyperlink ref="B460" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
+    <hyperlink ref="E460" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
+    <hyperlink ref="B461" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
+    <hyperlink ref="E461" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
+    <hyperlink ref="B462" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
+    <hyperlink ref="E462" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
+    <hyperlink ref="B487" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
+    <hyperlink ref="E487" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
+    <hyperlink ref="B464" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
+    <hyperlink ref="E464" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
+    <hyperlink ref="B465" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
+    <hyperlink ref="E465" r:id="rId936" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
+    <hyperlink ref="B466" r:id="rId937" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
+    <hyperlink ref="E466" r:id="rId938" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
+    <hyperlink ref="B467" r:id="rId939" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
+    <hyperlink ref="E467" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
     <hyperlink ref="B8" r:id="rId941" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
     <hyperlink ref="E8" r:id="rId942" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
-    <hyperlink ref="B472" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
-    <hyperlink ref="E472" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
+    <hyperlink ref="B468" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
+    <hyperlink ref="E468" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
     <hyperlink ref="B2" r:id="rId945" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
     <hyperlink ref="E2" r:id="rId946" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
-    <hyperlink ref="B493" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
-    <hyperlink ref="E493" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
+    <hyperlink ref="B496" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
+    <hyperlink ref="E496" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
     <hyperlink ref="B4" r:id="rId949" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
     <hyperlink ref="E4" r:id="rId950" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
     <hyperlink ref="B5" r:id="rId951" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
@@ -14849,40 +14849,40 @@
     <hyperlink ref="E6" r:id="rId954" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
     <hyperlink ref="B7" r:id="rId955" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
     <hyperlink ref="E7" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
-    <hyperlink ref="B480" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
-    <hyperlink ref="E480" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
-    <hyperlink ref="B481" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
-    <hyperlink ref="E481" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
-    <hyperlink ref="B482" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
-    <hyperlink ref="E482" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
-    <hyperlink ref="B491" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
-    <hyperlink ref="E491" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
-    <hyperlink ref="B490" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
-    <hyperlink ref="E490" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
-    <hyperlink ref="B485" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
-    <hyperlink ref="E485" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
-    <hyperlink ref="B489" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
-    <hyperlink ref="E489" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
-    <hyperlink ref="B486" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
-    <hyperlink ref="E486" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
+    <hyperlink ref="B484" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
+    <hyperlink ref="E484" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
+    <hyperlink ref="B485" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
+    <hyperlink ref="E485" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
+    <hyperlink ref="B486" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
+    <hyperlink ref="E486" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
+    <hyperlink ref="B494" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
+    <hyperlink ref="E494" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
+    <hyperlink ref="B493" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
+    <hyperlink ref="E493" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
+    <hyperlink ref="B489" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
+    <hyperlink ref="E489" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
+    <hyperlink ref="B492" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
+    <hyperlink ref="E492" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
+    <hyperlink ref="B490" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
+    <hyperlink ref="E490" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
     <hyperlink ref="B447" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
     <hyperlink ref="E447" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
     <hyperlink ref="B448" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
     <hyperlink ref="E448" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
-    <hyperlink ref="B496" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
-    <hyperlink ref="E496" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
-    <hyperlink ref="B484" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
-    <hyperlink ref="E484" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
-    <hyperlink ref="B492" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
-    <hyperlink ref="E492" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
-    <hyperlink ref="B494" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
-    <hyperlink ref="E494" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
-    <hyperlink ref="B495" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
-    <hyperlink ref="E495" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="B500" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
+    <hyperlink ref="E500" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="B477" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
+    <hyperlink ref="E477" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
+    <hyperlink ref="B495" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="E495" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="B498" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="E498" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="B499" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="E499" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
     <hyperlink ref="B3" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
     <hyperlink ref="E3" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
-    <hyperlink ref="B467" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
-    <hyperlink ref="E467" r:id="rId990" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
+    <hyperlink ref="B463" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
+    <hyperlink ref="E463" r:id="rId990" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F544E7-A6DD-1F4E-805A-DDFE0C3FF8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C08ED1E-24AF-5644-8832-00CEBD5B6241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5416,8 +5416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B448" sqref="B448"/>
+    <sheetView tabSelected="1" topLeftCell="A454" zoomScale="119" workbookViewId="0">
+      <selection activeCell="A485" sqref="A485:XFD485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12977,19 +12977,19 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="C445" s="2">
-        <v>690</v>
+        <v>1514</v>
       </c>
       <c r="D445" t="s">
-        <v>1126</v>
+        <v>1137</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>1594</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -13138,10 +13138,19 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E455" t="s">
-        <v>1654</v>
+        <v>487</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C455" s="2">
+        <v>289</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
@@ -13213,19 +13222,19 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>955</v>
+        <v>971</v>
       </c>
       <c r="C461" s="2">
-        <v>639</v>
+        <v>899</v>
       </c>
       <c r="D461" t="s">
-        <v>1136</v>
+        <v>1008</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1614</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
@@ -13417,19 +13426,19 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="C473" s="2">
-        <v>899</v>
+        <v>290</v>
       </c>
       <c r="D473" t="s">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
@@ -13468,36 +13477,27 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>0</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C476" s="2">
-        <v>899</v>
-      </c>
-      <c r="D476" t="s">
-        <v>987</v>
-      </c>
-      <c r="E476" s="1" t="s">
-        <v>1151</v>
+        <v>1653</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>981</v>
+        <v>935</v>
       </c>
       <c r="C477" s="2">
-        <v>289</v>
+        <v>690</v>
       </c>
       <c r="D477" t="s">
-        <v>1149</v>
+        <v>1126</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>1640</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
@@ -13519,19 +13519,19 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>951</v>
+        <v>493</v>
       </c>
       <c r="C479" s="2">
-        <v>290</v>
+        <v>899</v>
       </c>
       <c r="D479" t="s">
-        <v>1133</v>
+        <v>987</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1610</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
@@ -13621,19 +13621,19 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="C485" s="2">
-        <v>899</v>
+        <v>639</v>
       </c>
       <c r="D485" t="s">
-        <v>1008</v>
+        <v>1136</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1630</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
@@ -13655,19 +13655,19 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C487" s="2">
-        <v>1514</v>
+        <v>899</v>
       </c>
       <c r="D487" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1616</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
@@ -13893,8 +13893,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B476" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E476" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B479" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E479" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B478" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E478" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B488" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
@@ -14779,8 +14779,8 @@
     <hyperlink ref="E443" r:id="rId884" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
     <hyperlink ref="B444" r:id="rId885" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
     <hyperlink ref="E444" r:id="rId886" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
-    <hyperlink ref="B445" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
-    <hyperlink ref="E445" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
+    <hyperlink ref="B477" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
+    <hyperlink ref="E477" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
     <hyperlink ref="B446" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
     <hyperlink ref="E446" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
     <hyperlink ref="B491" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
@@ -14805,26 +14805,26 @@
     <hyperlink ref="E471" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
     <hyperlink ref="B472" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
     <hyperlink ref="E472" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
-    <hyperlink ref="B473" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
-    <hyperlink ref="E473" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
+    <hyperlink ref="B487" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
+    <hyperlink ref="E487" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
     <hyperlink ref="B474" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
     <hyperlink ref="E474" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
     <hyperlink ref="B475" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
     <hyperlink ref="E475" r:id="rId918" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
-    <hyperlink ref="B479" r:id="rId919" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
-    <hyperlink ref="E479" r:id="rId920" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
+    <hyperlink ref="B473" r:id="rId919" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
+    <hyperlink ref="E473" r:id="rId920" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
     <hyperlink ref="B458" r:id="rId921" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
     <hyperlink ref="E458" r:id="rId922" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
     <hyperlink ref="B459" r:id="rId923" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
     <hyperlink ref="E459" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
     <hyperlink ref="B460" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
     <hyperlink ref="E460" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
-    <hyperlink ref="B461" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
-    <hyperlink ref="E461" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
+    <hyperlink ref="B485" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
+    <hyperlink ref="E485" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
     <hyperlink ref="B462" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
     <hyperlink ref="E462" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
-    <hyperlink ref="B487" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
-    <hyperlink ref="E487" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
+    <hyperlink ref="B445" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
+    <hyperlink ref="E445" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
     <hyperlink ref="B464" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
     <hyperlink ref="E464" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
     <hyperlink ref="B465" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
@@ -14851,8 +14851,8 @@
     <hyperlink ref="E7" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
     <hyperlink ref="B484" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
     <hyperlink ref="E484" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
-    <hyperlink ref="B485" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
-    <hyperlink ref="E485" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
+    <hyperlink ref="B461" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
+    <hyperlink ref="E461" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
     <hyperlink ref="B486" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
     <hyperlink ref="E486" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
     <hyperlink ref="B494" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
@@ -14871,8 +14871,8 @@
     <hyperlink ref="E448" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
     <hyperlink ref="B500" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
     <hyperlink ref="E500" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
-    <hyperlink ref="B477" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
-    <hyperlink ref="E477" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
+    <hyperlink ref="B455" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
+    <hyperlink ref="E455" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
     <hyperlink ref="B495" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
     <hyperlink ref="E495" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
     <hyperlink ref="B498" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C08ED1E-24AF-5644-8832-00CEBD5B6241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FADAA3-D0C4-B247-9E66-CD070FABB4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="1661">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -4997,6 +4997,12 @@
   </si>
   <si>
     <t>https://arenapsgm.ru/newgame/tproduct/634814860882-raft-ps5</t>
+  </si>
+  <si>
+    <t>Assassin's Creed Valhalla Comlete Edition PS4/PS5</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/gamescatalog/tproduct/220501240552-assassins-creed-valhalla-comlete-edition</t>
   </si>
 </sst>
 </file>
@@ -5414,10 +5420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E500"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" zoomScale="119" workbookViewId="0">
-      <selection activeCell="A485" sqref="A485:XFD485"/>
+    <sheetView tabSelected="1" topLeftCell="A467" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A509" sqref="A509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13155,43 +13161,34 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>1655</v>
+        <v>1659</v>
       </c>
       <c r="E456" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="E457" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>458</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="C458" s="2">
-        <v>450</v>
-      </c>
-      <c r="D458" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E458" s="1" t="s">
-        <v>1611</v>
+        <v>1657</v>
+      </c>
+      <c r="E458" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C459" s="2">
         <v>450</v>
@@ -13200,117 +13197,117 @@
         <v>1134</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C460" s="2">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="D460" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="C461" s="2">
-        <v>899</v>
+        <v>490</v>
       </c>
       <c r="D461" t="s">
-        <v>1008</v>
+        <v>1135</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1630</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>956</v>
+        <v>971</v>
       </c>
       <c r="C462" s="2">
-        <v>280</v>
+        <v>899</v>
       </c>
       <c r="D462" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>1615</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>986</v>
+        <v>956</v>
       </c>
       <c r="C463" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D463" t="s">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>1645</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>958</v>
+        <v>986</v>
       </c>
       <c r="C464" s="2">
-        <v>590</v>
+        <v>250</v>
       </c>
       <c r="D464" t="s">
-        <v>1138</v>
+        <v>1028</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>1617</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C465" s="2">
-        <v>250</v>
+        <v>590</v>
       </c>
       <c r="D465" t="s">
-        <v>1028</v>
+        <v>1138</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C466" s="2">
         <v>250</v>
@@ -13319,261 +13316,261 @@
         <v>1028</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C467" s="2">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="D467" t="s">
-        <v>1139</v>
+        <v>1028</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C468" s="2">
         <v>490</v>
       </c>
       <c r="D468" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="C469" s="2">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="D469" t="s">
-        <v>1051</v>
+        <v>1140</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>1603</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C470" s="2">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="D470" t="s">
-        <v>1131</v>
+        <v>1051</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C471" s="2">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="D471" t="s">
-        <v>995</v>
+        <v>1131</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C472" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D472" t="s">
-        <v>1132</v>
+        <v>995</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C473" s="2">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="D473" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C474" s="2">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="D474" t="s">
-        <v>992</v>
+        <v>1133</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C475" s="2">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="D475" t="s">
-        <v>1012</v>
+        <v>992</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E476" t="s">
-        <v>1654</v>
+        <v>456</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C476" s="2">
+        <v>299</v>
+      </c>
+      <c r="D476" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1609</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>441</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="C477" s="2">
-        <v>690</v>
-      </c>
-      <c r="D477" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E477" s="1" t="s">
-        <v>1594</v>
+        <v>1653</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>1</v>
+        <v>441</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>494</v>
+        <v>935</v>
       </c>
       <c r="C478" s="2">
-        <v>290</v>
+        <v>690</v>
       </c>
       <c r="D478" t="s">
-        <v>988</v>
+        <v>1126</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>1152</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C479" s="2">
-        <v>899</v>
+        <v>290</v>
       </c>
       <c r="D479" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C480" s="2">
-        <v>449</v>
+        <v>899</v>
       </c>
       <c r="D480" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C481" s="2">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="D481" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C482" s="2">
         <v>359</v>
@@ -13582,15 +13579,15 @@
         <v>991</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C483" s="2">
         <v>359</v>
@@ -13599,270 +13596,270 @@
         <v>991</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>970</v>
+        <v>499</v>
       </c>
       <c r="C484" s="2">
-        <v>449</v>
+        <v>359</v>
       </c>
       <c r="D484" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>1629</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="C485" s="2">
-        <v>639</v>
+        <v>449</v>
       </c>
       <c r="D485" t="s">
-        <v>1136</v>
+        <v>1004</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1614</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="C486" s="2">
-        <v>790</v>
+        <v>639</v>
       </c>
       <c r="D486" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>1631</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>948</v>
+        <v>972</v>
       </c>
       <c r="C487" s="2">
-        <v>899</v>
+        <v>790</v>
       </c>
       <c r="D487" t="s">
-        <v>1128</v>
+        <v>1143</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1607</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>2</v>
+        <v>454</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>495</v>
+        <v>948</v>
       </c>
       <c r="C488" s="2">
-        <v>539</v>
+        <v>899</v>
       </c>
       <c r="D488" t="s">
-        <v>989</v>
+        <v>1128</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>1153</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>481</v>
+        <v>2</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>975</v>
+        <v>495</v>
       </c>
       <c r="C489" s="2">
-        <v>450</v>
+        <v>539</v>
       </c>
       <c r="D489" t="s">
-        <v>1145</v>
+        <v>989</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1634</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C490" s="2">
-        <v>639</v>
+        <v>450</v>
       </c>
       <c r="D490" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>937</v>
+        <v>977</v>
       </c>
       <c r="C491" s="2">
-        <v>939</v>
+        <v>639</v>
       </c>
       <c r="D491" t="s">
-        <v>1127</v>
+        <v>1147</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1596</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>976</v>
+        <v>937</v>
       </c>
       <c r="C492" s="2">
-        <v>899</v>
+        <v>939</v>
       </c>
       <c r="D492" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1635</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C493" s="2">
-        <v>350</v>
+        <v>899</v>
       </c>
       <c r="D493" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C494" s="2">
         <v>350</v>
       </c>
       <c r="D494" t="s">
-        <v>1120</v>
+        <v>1144</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="C495" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="D495" t="s">
-        <v>1150</v>
+        <v>1120</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>965</v>
+        <v>982</v>
       </c>
       <c r="C496" s="2">
-        <v>349</v>
+        <v>499</v>
       </c>
       <c r="D496" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1624</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>938</v>
+        <v>965</v>
       </c>
       <c r="C497" s="2">
-        <v>899</v>
+        <v>349</v>
       </c>
       <c r="D497" t="s">
-        <v>1128</v>
+        <v>1142</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>1597</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>983</v>
+        <v>938</v>
       </c>
       <c r="C498" s="2">
-        <v>499</v>
+        <v>899</v>
       </c>
       <c r="D498" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>1642</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C499" s="2">
         <v>499</v>
@@ -13871,15 +13868,15 @@
         <v>1148</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="C500" s="2">
         <v>499</v>
@@ -13888,25 +13885,42 @@
         <v>1148</v>
       </c>
       <c r="E500" s="1" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>486</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C501" s="2">
+        <v>499</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E501" s="1" t="s">
         <v>1639</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B479" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E479" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B478" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E478" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B488" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E488" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B480" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E480" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B481" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E481" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B482" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E482" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B483" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E483" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B480" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E480" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B479" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E479" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B489" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E489" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B481" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E481" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B482" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E482" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B483" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E483" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B484" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E484" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
@@ -14779,14 +14793,14 @@
     <hyperlink ref="E443" r:id="rId884" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
     <hyperlink ref="B444" r:id="rId885" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
     <hyperlink ref="E444" r:id="rId886" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
-    <hyperlink ref="B477" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
-    <hyperlink ref="E477" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
+    <hyperlink ref="B478" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
+    <hyperlink ref="E478" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
     <hyperlink ref="B446" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
     <hyperlink ref="E446" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
-    <hyperlink ref="B491" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
-    <hyperlink ref="E491" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
-    <hyperlink ref="B497" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
-    <hyperlink ref="E497" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="B492" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="E492" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="B498" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="E498" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
     <hyperlink ref="B449" r:id="rId895" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
     <hyperlink ref="E449" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
     <hyperlink ref="B450" r:id="rId897" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
@@ -14797,50 +14811,50 @@
     <hyperlink ref="E452" r:id="rId902" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
     <hyperlink ref="B453" r:id="rId903" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
     <hyperlink ref="E453" r:id="rId904" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
-    <hyperlink ref="B469" r:id="rId905" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
-    <hyperlink ref="E469" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
-    <hyperlink ref="B470" r:id="rId907" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
-    <hyperlink ref="E470" r:id="rId908" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
-    <hyperlink ref="B471" r:id="rId909" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
-    <hyperlink ref="E471" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
-    <hyperlink ref="B472" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
-    <hyperlink ref="E472" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
-    <hyperlink ref="B487" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
-    <hyperlink ref="E487" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
-    <hyperlink ref="B474" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
-    <hyperlink ref="E474" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
-    <hyperlink ref="B475" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
-    <hyperlink ref="E475" r:id="rId918" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
-    <hyperlink ref="B473" r:id="rId919" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
-    <hyperlink ref="E473" r:id="rId920" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
-    <hyperlink ref="B458" r:id="rId921" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
-    <hyperlink ref="E458" r:id="rId922" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
-    <hyperlink ref="B459" r:id="rId923" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
-    <hyperlink ref="E459" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
-    <hyperlink ref="B460" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
-    <hyperlink ref="E460" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
-    <hyperlink ref="B485" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
-    <hyperlink ref="E485" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
-    <hyperlink ref="B462" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
-    <hyperlink ref="E462" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
+    <hyperlink ref="B470" r:id="rId905" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
+    <hyperlink ref="E470" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
+    <hyperlink ref="B471" r:id="rId907" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
+    <hyperlink ref="E471" r:id="rId908" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
+    <hyperlink ref="B472" r:id="rId909" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
+    <hyperlink ref="E472" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
+    <hyperlink ref="B473" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
+    <hyperlink ref="E473" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
+    <hyperlink ref="B488" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
+    <hyperlink ref="E488" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
+    <hyperlink ref="B475" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
+    <hyperlink ref="E475" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
+    <hyperlink ref="B476" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
+    <hyperlink ref="E476" r:id="rId918" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
+    <hyperlink ref="B474" r:id="rId919" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
+    <hyperlink ref="E474" r:id="rId920" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
+    <hyperlink ref="B459" r:id="rId921" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
+    <hyperlink ref="E459" r:id="rId922" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
+    <hyperlink ref="B460" r:id="rId923" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
+    <hyperlink ref="E460" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
+    <hyperlink ref="B461" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
+    <hyperlink ref="E461" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
+    <hyperlink ref="B486" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
+    <hyperlink ref="E486" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
+    <hyperlink ref="B463" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
+    <hyperlink ref="E463" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
     <hyperlink ref="B445" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
     <hyperlink ref="E445" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
-    <hyperlink ref="B464" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
-    <hyperlink ref="E464" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
-    <hyperlink ref="B465" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
-    <hyperlink ref="E465" r:id="rId936" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
-    <hyperlink ref="B466" r:id="rId937" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
-    <hyperlink ref="E466" r:id="rId938" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
-    <hyperlink ref="B467" r:id="rId939" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
-    <hyperlink ref="E467" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
+    <hyperlink ref="B465" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
+    <hyperlink ref="E465" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
+    <hyperlink ref="B466" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
+    <hyperlink ref="E466" r:id="rId936" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
+    <hyperlink ref="B467" r:id="rId937" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
+    <hyperlink ref="E467" r:id="rId938" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
+    <hyperlink ref="B468" r:id="rId939" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
+    <hyperlink ref="E468" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
     <hyperlink ref="B8" r:id="rId941" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
     <hyperlink ref="E8" r:id="rId942" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
-    <hyperlink ref="B468" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
-    <hyperlink ref="E468" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
+    <hyperlink ref="B469" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
+    <hyperlink ref="E469" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
     <hyperlink ref="B2" r:id="rId945" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
     <hyperlink ref="E2" r:id="rId946" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
-    <hyperlink ref="B496" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
-    <hyperlink ref="E496" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
+    <hyperlink ref="B497" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
+    <hyperlink ref="E497" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
     <hyperlink ref="B4" r:id="rId949" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
     <hyperlink ref="E4" r:id="rId950" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
     <hyperlink ref="B5" r:id="rId951" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
@@ -14849,41 +14863,42 @@
     <hyperlink ref="E6" r:id="rId954" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
     <hyperlink ref="B7" r:id="rId955" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
     <hyperlink ref="E7" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
-    <hyperlink ref="B484" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
-    <hyperlink ref="E484" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
-    <hyperlink ref="B461" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
-    <hyperlink ref="E461" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
-    <hyperlink ref="B486" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
-    <hyperlink ref="E486" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
-    <hyperlink ref="B494" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
-    <hyperlink ref="E494" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
-    <hyperlink ref="B493" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
-    <hyperlink ref="E493" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
-    <hyperlink ref="B489" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
-    <hyperlink ref="E489" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
-    <hyperlink ref="B492" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
-    <hyperlink ref="E492" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
-    <hyperlink ref="B490" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
-    <hyperlink ref="E490" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
+    <hyperlink ref="B485" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
+    <hyperlink ref="E485" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
+    <hyperlink ref="B462" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
+    <hyperlink ref="E462" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
+    <hyperlink ref="B487" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
+    <hyperlink ref="E487" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
+    <hyperlink ref="B495" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
+    <hyperlink ref="E495" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
+    <hyperlink ref="B494" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
+    <hyperlink ref="E494" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
+    <hyperlink ref="B490" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
+    <hyperlink ref="E490" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
+    <hyperlink ref="B493" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
+    <hyperlink ref="E493" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
+    <hyperlink ref="B491" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
+    <hyperlink ref="E491" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
     <hyperlink ref="B447" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
     <hyperlink ref="E447" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
     <hyperlink ref="B448" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
     <hyperlink ref="E448" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
-    <hyperlink ref="B500" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
-    <hyperlink ref="E500" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="B501" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
+    <hyperlink ref="E501" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
     <hyperlink ref="B455" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
     <hyperlink ref="E455" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
-    <hyperlink ref="B495" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
-    <hyperlink ref="E495" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
-    <hyperlink ref="B498" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
-    <hyperlink ref="E498" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
-    <hyperlink ref="B499" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
-    <hyperlink ref="E499" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="B496" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="E496" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="B499" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="E499" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="B500" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="E500" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
     <hyperlink ref="B3" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
     <hyperlink ref="E3" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
-    <hyperlink ref="B463" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
-    <hyperlink ref="E463" r:id="rId990" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
+    <hyperlink ref="B464" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
+    <hyperlink ref="E464" r:id="rId990" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FADAA3-D0C4-B247-9E66-CD070FABB4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAAE2C4-CB45-2E47-9A12-97229EEDFF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4939,9 +4939,6 @@
     <t>http://arenapsgm.ru/tproduct/830239316762-job-simulator-ps4-amp-ps5</t>
   </si>
   <si>
-    <t>http://arenapsgm.ru/tproduct/805761453482-mafia-the-old-country-ps5</t>
-  </si>
-  <si>
     <t>http://arenapsgm.ru/wukong/tproduct/933182344402-sea-of-thieves-ps5</t>
   </si>
   <si>
@@ -5003,6 +5000,9 @@
   </si>
   <si>
     <t>https://arenapsgm.ru/gamescatalog/tproduct/220501240552-assassins-creed-valhalla-comlete-edition</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/horror/tproduct/156584378822-mafia-the-old-country-ps5-new-price</t>
   </si>
 </sst>
 </file>
@@ -5422,8 +5422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A467" zoomScale="81" workbookViewId="0">
-      <selection activeCell="A509" sqref="A509"/>
+    <sheetView tabSelected="1" topLeftCell="B484" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E506" sqref="E506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5438,19 +5438,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1646</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1647</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1648</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>1649</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1650</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5484,7 +5484,7 @@
         <v>1028</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -13136,10 +13136,10 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E454" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -13156,31 +13156,31 @@
         <v>1149</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E456" t="s">
         <v>1659</v>
-      </c>
-      <c r="E456" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E457" t="s">
         <v>1655</v>
-      </c>
-      <c r="E457" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E458" t="s">
         <v>1657</v>
-      </c>
-      <c r="E458" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -13282,7 +13282,7 @@
         <v>1028</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
@@ -13491,10 +13491,10 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E477" t="s">
         <v>1653</v>
-      </c>
-      <c r="E477" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
@@ -13817,7 +13817,7 @@
         <v>1150</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
@@ -13868,7 +13868,7 @@
         <v>1148</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
@@ -13885,7 +13885,7 @@
         <v>1148</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
@@ -13902,7 +13902,7 @@
         <v>1148</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1639</v>
+        <v>1660</v>
       </c>
     </row>
   </sheetData>
@@ -14884,19 +14884,19 @@
     <hyperlink ref="B448" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
     <hyperlink ref="E448" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
     <hyperlink ref="B501" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
-    <hyperlink ref="E501" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
-    <hyperlink ref="B455" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
-    <hyperlink ref="E455" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
-    <hyperlink ref="B496" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
-    <hyperlink ref="E496" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
-    <hyperlink ref="B499" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
-    <hyperlink ref="E499" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
-    <hyperlink ref="B500" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
-    <hyperlink ref="E500" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
-    <hyperlink ref="B3" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
-    <hyperlink ref="E3" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
-    <hyperlink ref="B464" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
-    <hyperlink ref="E464" r:id="rId990" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
+    <hyperlink ref="B455" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
+    <hyperlink ref="E455" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
+    <hyperlink ref="B496" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="E496" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="B499" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="E499" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="B500" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="E500" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="B3" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
+    <hyperlink ref="E3" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
+    <hyperlink ref="B464" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
+    <hyperlink ref="E464" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
+    <hyperlink ref="E501" r:id="rId990" display="http://arenapsgm.ru/tproduct/805761453482-mafia-the-old-country-ps5" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70A3846-7233-F24F-9581-E608AA057BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C3B95B-5D8F-B54F-B1C2-95DC56E1A4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="1665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1666">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -5015,6 +5015,9 @@
   </si>
   <si>
     <t>https://arenapsgm.ru/gamescatalog/tproduct/878263646762-hellblade-senuas-sacrifice-ps4ps5</t>
+  </si>
+  <si>
+    <t>лайс оф пи</t>
   </si>
 </sst>
 </file>
@@ -5433,10 +5436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E503"/>
+  <dimension ref="A1:E505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A479" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A450" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A505" sqref="A505:XFD505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9383,7 +9386,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>229</v>
+        <v>1665</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>720</v>
@@ -9400,44 +9403,44 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C234" s="2">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="D234" t="s">
-        <v>1017</v>
+        <v>1073</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C235" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D235" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C236" s="2">
         <v>250</v>
@@ -9446,117 +9449,117 @@
         <v>1025</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C237" s="2">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="D237" t="s">
-        <v>1074</v>
+        <v>1025</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1658</v>
+        <v>233</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C238" s="2">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="D238" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>234</v>
+        <v>1658</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C239" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D239" t="s">
-        <v>1025</v>
+        <v>1068</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C240" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D240" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C241" s="2">
-        <v>349</v>
+        <v>280</v>
       </c>
       <c r="D241" t="s">
-        <v>1075</v>
+        <v>1017</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C242" s="2">
-        <v>250</v>
+        <v>349</v>
       </c>
       <c r="D242" t="s">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C243" s="2">
         <v>250</v>
@@ -9565,15 +9568,15 @@
         <v>1025</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C244" s="2">
         <v>250</v>
@@ -9582,168 +9585,168 @@
         <v>1025</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C245" s="2">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="D245" t="s">
-        <v>1074</v>
+        <v>1025</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C246" s="2">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D246" t="s">
-        <v>1025</v>
+        <v>1074</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C247" s="2">
-        <v>590</v>
+        <v>250</v>
       </c>
       <c r="D247" t="s">
-        <v>1076</v>
+        <v>1025</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C248" s="2">
-        <v>359</v>
+        <v>590</v>
       </c>
       <c r="D248" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C249" s="2">
-        <v>499</v>
+        <v>359</v>
       </c>
       <c r="D249" t="s">
-        <v>1000</v>
+        <v>1077</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1659</v>
+        <v>244</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C250" s="2">
-        <v>259</v>
+        <v>499</v>
       </c>
       <c r="D250" t="s">
-        <v>1068</v>
+        <v>1000</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>245</v>
+        <v>1659</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C251" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D251" t="s">
-        <v>1025</v>
+        <v>1068</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C252" s="2">
-        <v>359</v>
+        <v>250</v>
       </c>
       <c r="D252" t="s">
-        <v>1078</v>
+        <v>1025</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C253" s="2">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="D253" t="s">
-        <v>1025</v>
+        <v>1078</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C254" s="2">
         <v>250</v>
@@ -9752,15 +9755,15 @@
         <v>1025</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C255" s="2">
         <v>250</v>
@@ -9769,15 +9772,15 @@
         <v>1025</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C256" s="2">
         <v>250</v>
@@ -9786,49 +9789,49 @@
         <v>1025</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C257" s="2">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="D257" t="s">
-        <v>1079</v>
+        <v>1025</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C258" s="2">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="D258" t="s">
-        <v>1025</v>
+        <v>1079</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C259" s="2">
         <v>250</v>
@@ -9837,66 +9840,66 @@
         <v>1025</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C260" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D260" t="s">
         <v>1025</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C261" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D261" t="s">
         <v>1025</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C262" s="2">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="D262" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C263" s="2">
         <v>290</v>
@@ -9905,32 +9908,32 @@
         <v>1042</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C264" s="2">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D264" t="s">
-        <v>1025</v>
+        <v>1042</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C265" s="2">
         <v>250</v>
@@ -9939,49 +9942,49 @@
         <v>1025</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C266" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D266" t="s">
-        <v>1080</v>
+        <v>1025</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C267" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D267" t="s">
-        <v>1025</v>
+        <v>1080</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C268" s="2">
         <v>250</v>
@@ -9990,15 +9993,15 @@
         <v>1025</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C269" s="2">
         <v>250</v>
@@ -10007,49 +10010,49 @@
         <v>1025</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C270" s="2">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="D270" t="s">
-        <v>1055</v>
+        <v>1025</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C271" s="2">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D271" t="s">
-        <v>1025</v>
+        <v>1055</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C272" s="2">
         <v>250</v>
@@ -10058,49 +10061,49 @@
         <v>1025</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C273" s="2">
         <v>250</v>
       </c>
       <c r="D273" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C274" s="2">
         <v>250</v>
       </c>
       <c r="D274" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C275" s="2">
         <v>250</v>
@@ -10109,15 +10112,15 @@
         <v>1025</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C276" s="2">
         <v>250</v>
@@ -10126,49 +10129,49 @@
         <v>1025</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C277" s="2">
         <v>250</v>
       </c>
       <c r="D277" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C278" s="2">
         <v>250</v>
       </c>
       <c r="D278" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C279" s="2">
         <v>250</v>
@@ -10177,15 +10180,15 @@
         <v>1025</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C280" s="2">
         <v>250</v>
@@ -10194,49 +10197,49 @@
         <v>1025</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C281" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D281" t="s">
-        <v>1081</v>
+        <v>1025</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C282" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D282" t="s">
-        <v>1025</v>
+        <v>1081</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C283" s="2">
         <v>250</v>
@@ -10245,15 +10248,15 @@
         <v>1025</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C284" s="2">
         <v>250</v>
@@ -10262,66 +10265,66 @@
         <v>1025</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C285" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D285" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C286" s="2">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="D286" t="s">
-        <v>992</v>
+        <v>1037</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C287" s="2">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="D287" t="s">
-        <v>1025</v>
+        <v>992</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C288" s="2">
         <v>250</v>
@@ -10330,134 +10333,134 @@
         <v>1025</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C289" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D289" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C290" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D290" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C291" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D291" t="s">
-        <v>1082</v>
+        <v>1025</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C292" s="2">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="D292" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C293" s="2">
-        <v>359</v>
+        <v>280</v>
       </c>
       <c r="D293" t="s">
-        <v>992</v>
+        <v>1083</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C294" s="2">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="D294" t="s">
-        <v>1084</v>
+        <v>992</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C295" s="2">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="D295" t="s">
-        <v>1025</v>
+        <v>1084</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C296" s="2">
         <v>250</v>
@@ -10466,15 +10469,15 @@
         <v>1025</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C297" s="2">
         <v>250</v>
@@ -10483,49 +10486,49 @@
         <v>1025</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C298" s="2">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="D298" t="s">
-        <v>1085</v>
+        <v>1025</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C299" s="2">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="D299" t="s">
-        <v>1025</v>
+        <v>1085</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C300" s="2">
         <v>250</v>
@@ -10534,15 +10537,15 @@
         <v>1025</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C301" s="2">
         <v>250</v>
@@ -10551,100 +10554,100 @@
         <v>1025</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C302" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D302" t="s">
-        <v>1086</v>
+        <v>1025</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C303" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D303" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C304" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D304" t="s">
-        <v>1025</v>
+        <v>1087</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C305" s="2">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="D305" t="s">
-        <v>1088</v>
+        <v>1025</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C306" s="2">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="D306" t="s">
-        <v>1025</v>
+        <v>1088</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C307" s="2">
         <v>250</v>
@@ -10653,15 +10656,15 @@
         <v>1025</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C308" s="2">
         <v>250</v>
@@ -10670,15 +10673,15 @@
         <v>1025</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C309" s="2">
         <v>250</v>
@@ -10687,15 +10690,15 @@
         <v>1025</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C310" s="2">
         <v>250</v>
@@ -10704,66 +10707,66 @@
         <v>1025</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C311" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D311" t="s">
-        <v>1089</v>
+        <v>1025</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C312" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D312" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C313" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D313" t="s">
-        <v>1025</v>
+        <v>1081</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C314" s="2">
         <v>250</v>
@@ -10772,15 +10775,15 @@
         <v>1025</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C315" s="2">
         <v>250</v>
@@ -10789,100 +10792,100 @@
         <v>1025</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C316" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D316" t="s">
-        <v>1090</v>
+        <v>1025</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C317" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D317" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C318" s="2">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="D318" t="s">
-        <v>1025</v>
+        <v>1091</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C319" s="2">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="D319" t="s">
-        <v>1092</v>
+        <v>1025</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C320" s="2">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="D320" t="s">
-        <v>1025</v>
+        <v>1092</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C321" s="2">
         <v>250</v>
@@ -10891,66 +10894,66 @@
         <v>1025</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C322" s="2">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="D322" t="s">
-        <v>1093</v>
+        <v>1025</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>46</v>
+        <v>316</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>536</v>
+        <v>809</v>
       </c>
       <c r="C323" s="2">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D323" t="s">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>810</v>
+        <v>536</v>
       </c>
       <c r="C324" s="2">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="D324" t="s">
-        <v>1025</v>
+        <v>1078</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C325" s="2">
         <v>250</v>
@@ -10959,15 +10962,15 @@
         <v>1025</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C326" s="2">
         <v>250</v>
@@ -10976,117 +10979,117 @@
         <v>1025</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C327" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D327" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C328" s="2">
-        <v>590</v>
+        <v>280</v>
       </c>
       <c r="D328" t="s">
-        <v>1094</v>
+        <v>1017</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C329" s="2">
-        <v>250</v>
+        <v>590</v>
       </c>
       <c r="D329" t="s">
-        <v>1048</v>
+        <v>1094</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C330" s="2">
         <v>250</v>
       </c>
       <c r="D330" t="s">
-        <v>1025</v>
+        <v>1048</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C331" s="2">
         <v>250</v>
       </c>
       <c r="D331" t="s">
-        <v>1058</v>
+        <v>1025</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C332" s="2">
         <v>250</v>
       </c>
       <c r="D332" t="s">
-        <v>1025</v>
+        <v>1058</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C333" s="2">
         <v>250</v>
@@ -11095,15 +11098,15 @@
         <v>1025</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C334" s="2">
         <v>250</v>
@@ -11112,15 +11115,15 @@
         <v>1025</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C335" s="2">
         <v>250</v>
@@ -11129,15 +11132,15 @@
         <v>1025</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C336" s="2">
         <v>250</v>
@@ -11146,15 +11149,15 @@
         <v>1025</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C337" s="2">
         <v>250</v>
@@ -11163,151 +11166,151 @@
         <v>1025</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C338" s="2">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="D338" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C339" s="2">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D339" t="s">
-        <v>1025</v>
+        <v>1042</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C340" s="2">
-        <v>349</v>
+        <v>250</v>
       </c>
       <c r="D340" t="s">
-        <v>1095</v>
+        <v>1025</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C341" s="2">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="D341" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C342" s="2">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="D342" t="s">
-        <v>1058</v>
+        <v>1096</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C343" s="2">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="D343" t="s">
-        <v>1025</v>
+        <v>1058</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C344" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D344" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C345" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D345" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C346" s="2">
         <v>250</v>
@@ -11316,15 +11319,15 @@
         <v>1025</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C347" s="2">
         <v>250</v>
@@ -11333,134 +11336,134 @@
         <v>1025</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C348" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D348" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C349" s="2">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="D349" t="s">
-        <v>1097</v>
+        <v>1017</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C350" s="2">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="D350" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C351" s="2">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="D351" t="s">
-        <v>1037</v>
+        <v>1098</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C352" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D352" t="s">
-        <v>1099</v>
+        <v>1037</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C353" s="2">
         <v>350</v>
       </c>
       <c r="D353" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C354" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D354" t="s">
-        <v>1025</v>
+        <v>1100</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C355" s="2">
         <v>250</v>
@@ -11469,15 +11472,15 @@
         <v>1025</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C356" s="2">
         <v>250</v>
@@ -11486,15 +11489,15 @@
         <v>1025</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C357" s="2">
         <v>250</v>
@@ -11503,66 +11506,66 @@
         <v>1025</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C358" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D358" t="s">
-        <v>1101</v>
+        <v>1025</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C359" s="2">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="D359" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C360" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D360" t="s">
-        <v>1025</v>
+        <v>1102</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C361" s="2">
         <v>250</v>
@@ -11571,15 +11574,15 @@
         <v>1025</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C362" s="2">
         <v>250</v>
@@ -11588,117 +11591,117 @@
         <v>1025</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C363" s="2">
         <v>250</v>
       </c>
       <c r="D363" t="s">
-        <v>1048</v>
+        <v>1025</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>6</v>
+        <v>356</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C364" s="2">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="D364" t="s">
-        <v>1103</v>
+        <v>1048</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C365" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="D365" t="s">
-        <v>992</v>
+        <v>1103</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C366" s="2">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="D366" t="s">
-        <v>1104</v>
+        <v>992</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C367" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D367" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C368" s="2">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D368" t="s">
-        <v>1025</v>
+        <v>1105</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C369" s="2">
         <v>250</v>
@@ -11707,100 +11710,100 @@
         <v>1025</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C370" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D370" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C371" s="2">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="D371" t="s">
-        <v>1106</v>
+        <v>1017</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C372" s="2">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="D372" t="s">
-        <v>1017</v>
+        <v>1106</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C373" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D373" t="s">
-        <v>1107</v>
+        <v>1017</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C374" s="2">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D374" t="s">
-        <v>1025</v>
+        <v>1107</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C375" s="2">
         <v>250</v>
@@ -11809,66 +11812,66 @@
         <v>1025</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C376" s="2">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="D376" t="s">
-        <v>1108</v>
+        <v>1025</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C377" s="2">
         <v>490</v>
       </c>
       <c r="D377" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C378" s="2">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="D378" t="s">
-        <v>1025</v>
+        <v>1109</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C379" s="2">
         <v>250</v>
@@ -11877,15 +11880,15 @@
         <v>1025</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C380" s="2">
         <v>250</v>
@@ -11894,66 +11897,66 @@
         <v>1025</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C381" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D381" t="s">
-        <v>1110</v>
+        <v>1025</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C382" s="2">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="D382" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C383" s="2">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="D383" t="s">
-        <v>1025</v>
+        <v>1111</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C384" s="2">
         <v>250</v>
@@ -11962,100 +11965,100 @@
         <v>1025</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C385" s="2">
-        <v>390</v>
+        <v>250</v>
       </c>
       <c r="D385" t="s">
-        <v>1112</v>
+        <v>1025</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C386" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="D386" t="s">
-        <v>990</v>
+        <v>1112</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C387" s="2">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="D387" t="s">
-        <v>1025</v>
+        <v>990</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C388" s="2">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="D388" t="s">
-        <v>1113</v>
+        <v>1025</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C389" s="2">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="D389" t="s">
-        <v>1025</v>
+        <v>1113</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C390" s="2">
         <v>250</v>
@@ -12064,15 +12067,15 @@
         <v>1025</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C391" s="2">
         <v>250</v>
@@ -12081,49 +12084,49 @@
         <v>1025</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C392" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D392" t="s">
-        <v>1114</v>
+        <v>1025</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C393" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D393" t="s">
-        <v>1025</v>
+        <v>1114</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C394" s="2">
         <v>250</v>
@@ -12132,83 +12135,83 @@
         <v>1025</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C395" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D395" t="s">
-        <v>1115</v>
+        <v>1025</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C396" s="2">
         <v>300</v>
       </c>
       <c r="D396" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C397" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D397" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C398" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D398" t="s">
-        <v>1025</v>
+        <v>1117</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C399" s="2">
         <v>250</v>
@@ -12217,15 +12220,15 @@
         <v>1025</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C400" s="2">
         <v>250</v>
@@ -12234,100 +12237,100 @@
         <v>1025</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C401" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D401" t="s">
-        <v>1118</v>
+        <v>1025</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C402" s="2">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="D402" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C403" s="2">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="D403" t="s">
-        <v>1025</v>
+        <v>1119</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C404" s="2">
         <v>250</v>
       </c>
       <c r="D404" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C405" s="2">
         <v>250</v>
       </c>
       <c r="D405" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C406" s="2">
         <v>250</v>
@@ -12336,15 +12339,15 @@
         <v>1025</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C407" s="2">
         <v>250</v>
@@ -12353,49 +12356,49 @@
         <v>1025</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C408" s="2">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D408" t="s">
-        <v>1120</v>
+        <v>1025</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C409" s="2">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="D409" t="s">
-        <v>1025</v>
+        <v>1120</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C410" s="2">
         <v>250</v>
@@ -12404,15 +12407,15 @@
         <v>1025</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C411" s="2">
         <v>250</v>
@@ -12421,202 +12424,202 @@
         <v>1025</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C412" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D412" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C413" s="2">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="D413" t="s">
-        <v>1038</v>
+        <v>1017</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C414" s="2">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="D414" t="s">
-        <v>1025</v>
+        <v>1038</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C415" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D415" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C416" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D416" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C417" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D417" t="s">
         <v>1025</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C418" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D418" t="s">
         <v>1025</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C419" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D419" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C420" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D420" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C421" s="2">
         <v>250</v>
       </c>
       <c r="D421" t="s">
-        <v>1121</v>
+        <v>1025</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C422" s="2">
         <v>250</v>
       </c>
       <c r="D422" t="s">
-        <v>1025</v>
+        <v>1121</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C423" s="2">
         <v>250</v>
@@ -12625,15 +12628,15 @@
         <v>1025</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C424" s="2">
         <v>250</v>
@@ -12642,15 +12645,15 @@
         <v>1025</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C425" s="2">
         <v>250</v>
@@ -12659,15 +12662,15 @@
         <v>1025</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C426" s="2">
         <v>250</v>
@@ -12676,15 +12679,15 @@
         <v>1025</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C427" s="2">
         <v>250</v>
@@ -12693,15 +12696,15 @@
         <v>1025</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C428" s="2">
         <v>250</v>
@@ -12710,15 +12713,15 @@
         <v>1025</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C429" s="2">
         <v>250</v>
@@ -12727,15 +12730,15 @@
         <v>1025</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C430" s="2">
         <v>250</v>
@@ -12744,15 +12747,15 @@
         <v>1025</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C431" s="2">
         <v>250</v>
@@ -12761,15 +12764,15 @@
         <v>1025</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C432" s="2">
         <v>250</v>
@@ -12778,15 +12781,15 @@
         <v>1025</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C433" s="2">
         <v>250</v>
@@ -12795,15 +12798,15 @@
         <v>1025</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C434" s="2">
         <v>250</v>
@@ -12812,15 +12815,15 @@
         <v>1025</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C435" s="2">
         <v>250</v>
@@ -12829,15 +12832,15 @@
         <v>1025</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C436" s="2">
         <v>250</v>
@@ -12846,15 +12849,15 @@
         <v>1025</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C437" s="2">
         <v>250</v>
@@ -12863,15 +12866,15 @@
         <v>1025</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C438" s="2">
         <v>250</v>
@@ -12880,49 +12883,49 @@
         <v>1025</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C439" s="2">
         <v>250</v>
       </c>
       <c r="D439" t="s">
-        <v>1121</v>
+        <v>1025</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C440" s="2">
         <v>250</v>
       </c>
       <c r="D440" t="s">
-        <v>1025</v>
+        <v>1121</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C441" s="2">
         <v>250</v>
@@ -12931,15 +12934,15 @@
         <v>1025</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C442" s="2">
         <v>250</v>
@@ -12948,151 +12951,151 @@
         <v>1025</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C443" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="D443" t="s">
-        <v>1066</v>
+        <v>1025</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C444" s="2">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="D444" t="s">
-        <v>1122</v>
+        <v>1066</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C445" s="2">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="D445" t="s">
-        <v>1025</v>
+        <v>1122</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="C446" s="2">
-        <v>1514</v>
+        <v>250</v>
       </c>
       <c r="D446" t="s">
-        <v>1134</v>
+        <v>1025</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>1613</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C447" s="2">
-        <v>250</v>
+        <v>1514</v>
       </c>
       <c r="D447" t="s">
-        <v>1019</v>
+        <v>1134</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>1592</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>975</v>
+        <v>933</v>
       </c>
       <c r="C448" s="2">
         <v>250</v>
       </c>
       <c r="D448" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>1634</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C449" s="2">
         <v>250</v>
       </c>
       <c r="D449" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>936</v>
+        <v>976</v>
       </c>
       <c r="C450" s="2">
         <v>250</v>
       </c>
       <c r="D450" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>1595</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C451" s="2">
         <v>250</v>
@@ -13101,132 +13104,132 @@
         <v>1025</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C452" s="2">
-        <v>439</v>
+        <v>250</v>
       </c>
       <c r="D452" t="s">
-        <v>1126</v>
+        <v>1025</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C453" s="2">
-        <v>350</v>
+        <v>439</v>
       </c>
       <c r="D453" t="s">
-        <v>1117</v>
+        <v>1126</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C454" s="2">
-        <v>490</v>
+        <v>350</v>
       </c>
       <c r="D454" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E455" t="s">
-        <v>1647</v>
+        <v>446</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C455" s="2">
+        <v>490</v>
+      </c>
+      <c r="D455" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>484</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="C456" s="2">
-        <v>289</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E456" s="1" t="s">
-        <v>1636</v>
+        <v>1648</v>
+      </c>
+      <c r="E456" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>1655</v>
-      </c>
-      <c r="E457" t="s">
-        <v>1656</v>
+        <v>484</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C457" s="2">
+        <v>289</v>
+      </c>
+      <c r="D457" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="E458" t="s">
-        <v>1652</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="E459" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>455</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C460" s="2">
-        <v>450</v>
-      </c>
-      <c r="D460" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E460" s="1" t="s">
-        <v>1608</v>
+        <v>1653</v>
+      </c>
+      <c r="E460" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C461" s="2">
         <v>450</v>
@@ -13235,397 +13238,397 @@
         <v>1131</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C462" s="2">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="D462" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="C463" s="2">
-        <v>899</v>
+        <v>490</v>
       </c>
       <c r="D463" t="s">
-        <v>1005</v>
+        <v>1132</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>1627</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="C464" s="2">
-        <v>280</v>
+        <v>899</v>
       </c>
       <c r="D464" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>1612</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>983</v>
+        <v>953</v>
       </c>
       <c r="C465" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D465" t="s">
-        <v>1025</v>
+        <v>1008</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>1641</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>955</v>
+        <v>983</v>
       </c>
       <c r="C466" s="2">
-        <v>590</v>
+        <v>250</v>
       </c>
       <c r="D466" t="s">
-        <v>1135</v>
+        <v>1025</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>1614</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C467" s="2">
-        <v>250</v>
+        <v>590</v>
       </c>
       <c r="D467" t="s">
-        <v>1025</v>
+        <v>1135</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>463</v>
+        <v>1665</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
       <c r="C468" s="2">
-        <v>250</v>
+        <v>899</v>
       </c>
       <c r="D468" t="s">
-        <v>1025</v>
+        <v>1143</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>1616</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C469" s="2">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="D469" t="s">
-        <v>1136</v>
+        <v>1025</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C470" s="2">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="D470" t="s">
-        <v>1137</v>
+        <v>1025</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>941</v>
+        <v>958</v>
       </c>
       <c r="C471" s="2">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="D471" t="s">
-        <v>1048</v>
+        <v>1136</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>1600</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="C472" s="2">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="D472" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>1601</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C473" s="2">
-        <v>359</v>
+        <v>250</v>
       </c>
       <c r="D473" t="s">
-        <v>992</v>
+        <v>1048</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C474" s="2">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="D474" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C475" s="2">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="D475" t="s">
-        <v>1130</v>
+        <v>992</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C476" s="2">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D476" t="s">
-        <v>989</v>
+        <v>1129</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C477" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D477" t="s">
-        <v>1009</v>
+        <v>1130</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E478" t="s">
-        <v>1650</v>
+        <v>452</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C478" s="2">
+        <v>359</v>
+      </c>
+      <c r="D478" t="s">
+        <v>989</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>932</v>
+        <v>947</v>
       </c>
       <c r="C479" s="2">
-        <v>690</v>
+        <v>299</v>
       </c>
       <c r="D479" t="s">
-        <v>1123</v>
+        <v>1009</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>1591</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>1</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C480" s="2">
-        <v>290</v>
-      </c>
-      <c r="D480" t="s">
-        <v>985</v>
-      </c>
-      <c r="E480" s="1" t="s">
-        <v>1149</v>
+        <v>1649</v>
+      </c>
+      <c r="E480" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>490</v>
+        <v>932</v>
       </c>
       <c r="C481" s="2">
-        <v>899</v>
+        <v>690</v>
       </c>
       <c r="D481" t="s">
-        <v>984</v>
+        <v>1123</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>1148</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C482" s="2">
-        <v>449</v>
+        <v>290</v>
       </c>
       <c r="D482" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C483" s="2">
-        <v>359</v>
+        <v>899</v>
       </c>
       <c r="D483" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C484" s="2">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="D484" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C485" s="2">
         <v>359</v>
@@ -13634,287 +13637,287 @@
         <v>988</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>473</v>
+        <v>5</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>967</v>
+        <v>495</v>
       </c>
       <c r="C486" s="2">
-        <v>449</v>
+        <v>359</v>
       </c>
       <c r="D486" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>1626</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>458</v>
+        <v>6</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>952</v>
+        <v>496</v>
       </c>
       <c r="C487" s="2">
-        <v>639</v>
+        <v>359</v>
       </c>
       <c r="D487" t="s">
-        <v>1133</v>
+        <v>988</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1611</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C488" s="2">
-        <v>790</v>
+        <v>449</v>
       </c>
       <c r="D488" t="s">
-        <v>1140</v>
+        <v>1001</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="C489" s="2">
-        <v>899</v>
+        <v>639</v>
       </c>
       <c r="D489" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1604</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>2</v>
+        <v>475</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>492</v>
+        <v>969</v>
       </c>
       <c r="C490" s="2">
-        <v>539</v>
+        <v>790</v>
       </c>
       <c r="D490" t="s">
-        <v>986</v>
+        <v>1140</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1150</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>972</v>
+        <v>945</v>
       </c>
       <c r="C491" s="2">
-        <v>450</v>
+        <v>899</v>
       </c>
       <c r="D491" t="s">
-        <v>1142</v>
+        <v>1125</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1631</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>974</v>
+        <v>492</v>
       </c>
       <c r="C492" s="2">
-        <v>639</v>
+        <v>539</v>
       </c>
       <c r="D492" t="s">
-        <v>1144</v>
+        <v>986</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1633</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>934</v>
+        <v>972</v>
       </c>
       <c r="C493" s="2">
-        <v>939</v>
+        <v>450</v>
       </c>
       <c r="D493" t="s">
-        <v>1124</v>
+        <v>1142</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1593</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C494" s="2">
-        <v>899</v>
+        <v>639</v>
       </c>
       <c r="D494" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>971</v>
+        <v>934</v>
       </c>
       <c r="C495" s="2">
-        <v>350</v>
+        <v>939</v>
       </c>
       <c r="D495" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1630</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C496" s="2">
-        <v>350</v>
+        <v>899</v>
       </c>
       <c r="D496" t="s">
-        <v>1117</v>
+        <v>1143</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="C497" s="2">
-        <v>499</v>
+        <v>350</v>
       </c>
       <c r="D497" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="C498" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D498" t="s">
-        <v>1139</v>
+        <v>1117</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>1621</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>935</v>
+        <v>979</v>
       </c>
       <c r="C499" s="2">
-        <v>899</v>
+        <v>499</v>
       </c>
       <c r="D499" t="s">
-        <v>1125</v>
+        <v>1147</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1594</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>980</v>
+        <v>962</v>
       </c>
       <c r="C500" s="2">
-        <v>499</v>
+        <v>349</v>
       </c>
       <c r="D500" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1638</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>487</v>
+        <v>441</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>981</v>
+        <v>935</v>
       </c>
       <c r="C501" s="2">
-        <v>499</v>
+        <v>899</v>
       </c>
       <c r="D501" t="s">
-        <v>1145</v>
+        <v>1125</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1639</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C502" s="2">
         <v>499</v>
@@ -13923,33 +13926,67 @@
         <v>1145</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1657</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
+        <v>487</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C503" s="2">
+        <v>499</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>483</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C504" s="2">
+        <v>499</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
         <v>1661</v>
       </c>
-      <c r="E503" t="s">
+      <c r="E505" t="s">
         <v>1662</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B481" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E481" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B480" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E480" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B490" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E490" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B482" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E482" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B483" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E483" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B484" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E484" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B485" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E485" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B483" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E483" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B482" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E482" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B492" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E492" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B484" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E484" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B485" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E485" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B486" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E486" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B487" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E487" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="B11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
@@ -14396,494 +14433,494 @@
     <hyperlink ref="E231" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
     <hyperlink ref="B232" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
     <hyperlink ref="E232" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="B233" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="E233" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="B234" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="E234" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="B235" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="E235" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="B236" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="E236" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="B237" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="E237" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="B238" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="E238" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="B239" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="E239" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="B240" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="E240" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="B241" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="E241" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="B242" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="E242" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="B243" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="E243" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="B244" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="E244" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="B245" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="E245" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="B246" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="E246" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="B247" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="E247" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="B248" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="E248" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="B249" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="E249" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="B250" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="E250" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="B251" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="E251" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="B252" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="E252" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="B253" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="E253" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="B254" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="E254" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="B255" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="E255" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="B256" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="E256" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="B257" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="E257" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="B258" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="E258" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="B259" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="E259" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="B260" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="E260" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="B261" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="E261" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="B262" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
-    <hyperlink ref="E262" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
-    <hyperlink ref="B263" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
-    <hyperlink ref="E263" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
-    <hyperlink ref="B264" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
-    <hyperlink ref="E264" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
-    <hyperlink ref="B265" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
-    <hyperlink ref="E265" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
-    <hyperlink ref="B266" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
-    <hyperlink ref="E266" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
-    <hyperlink ref="B267" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
-    <hyperlink ref="E267" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
-    <hyperlink ref="B268" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
-    <hyperlink ref="E268" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
-    <hyperlink ref="B269" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
-    <hyperlink ref="E269" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
-    <hyperlink ref="B270" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
-    <hyperlink ref="E270" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
-    <hyperlink ref="B271" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
-    <hyperlink ref="E271" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
-    <hyperlink ref="B272" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
-    <hyperlink ref="E272" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
-    <hyperlink ref="B273" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
-    <hyperlink ref="E273" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
-    <hyperlink ref="B274" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
-    <hyperlink ref="E274" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
-    <hyperlink ref="B275" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
-    <hyperlink ref="E275" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
-    <hyperlink ref="B276" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
-    <hyperlink ref="E276" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
-    <hyperlink ref="B277" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
-    <hyperlink ref="E277" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
-    <hyperlink ref="B278" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
-    <hyperlink ref="E278" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
-    <hyperlink ref="B279" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
-    <hyperlink ref="E279" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
-    <hyperlink ref="B280" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
-    <hyperlink ref="E280" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
-    <hyperlink ref="B281" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
-    <hyperlink ref="E281" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
-    <hyperlink ref="B282" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
-    <hyperlink ref="E282" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
-    <hyperlink ref="B283" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
-    <hyperlink ref="E283" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
-    <hyperlink ref="B284" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
-    <hyperlink ref="E284" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
-    <hyperlink ref="B285" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
-    <hyperlink ref="E285" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
-    <hyperlink ref="B286" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
-    <hyperlink ref="E286" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
-    <hyperlink ref="B287" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
-    <hyperlink ref="E287" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
-    <hyperlink ref="B288" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
-    <hyperlink ref="E288" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
-    <hyperlink ref="B289" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
-    <hyperlink ref="E289" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
-    <hyperlink ref="B290" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
-    <hyperlink ref="E290" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
-    <hyperlink ref="B291" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
-    <hyperlink ref="E291" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
-    <hyperlink ref="B292" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
-    <hyperlink ref="E292" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
-    <hyperlink ref="B293" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
-    <hyperlink ref="E293" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
-    <hyperlink ref="B294" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
-    <hyperlink ref="E294" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
-    <hyperlink ref="B295" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
-    <hyperlink ref="E295" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
-    <hyperlink ref="B296" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
-    <hyperlink ref="E296" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
-    <hyperlink ref="B297" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
-    <hyperlink ref="E297" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
-    <hyperlink ref="B298" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
-    <hyperlink ref="E298" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
-    <hyperlink ref="B299" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
-    <hyperlink ref="E299" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
-    <hyperlink ref="B300" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
-    <hyperlink ref="E300" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
-    <hyperlink ref="B301" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
-    <hyperlink ref="E301" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
-    <hyperlink ref="B302" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
-    <hyperlink ref="E302" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
-    <hyperlink ref="B303" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
-    <hyperlink ref="E303" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
-    <hyperlink ref="B304" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
-    <hyperlink ref="E304" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
-    <hyperlink ref="B305" r:id="rId605" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
-    <hyperlink ref="E305" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
-    <hyperlink ref="B306" r:id="rId607" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
-    <hyperlink ref="E306" r:id="rId608" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
-    <hyperlink ref="B307" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
-    <hyperlink ref="E307" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
-    <hyperlink ref="B308" r:id="rId611" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
-    <hyperlink ref="E308" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
-    <hyperlink ref="B309" r:id="rId613" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
-    <hyperlink ref="E309" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
-    <hyperlink ref="B310" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
-    <hyperlink ref="E310" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
-    <hyperlink ref="B311" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
-    <hyperlink ref="E311" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
-    <hyperlink ref="B312" r:id="rId619" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
-    <hyperlink ref="E312" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
-    <hyperlink ref="B313" r:id="rId621" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
-    <hyperlink ref="E313" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
-    <hyperlink ref="B314" r:id="rId623" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
-    <hyperlink ref="E314" r:id="rId624" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
-    <hyperlink ref="B315" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
-    <hyperlink ref="E315" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
-    <hyperlink ref="B316" r:id="rId627" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
-    <hyperlink ref="E316" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
-    <hyperlink ref="B317" r:id="rId629" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
-    <hyperlink ref="E317" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
-    <hyperlink ref="B318" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
-    <hyperlink ref="E318" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
-    <hyperlink ref="B319" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
-    <hyperlink ref="E319" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
-    <hyperlink ref="B320" r:id="rId635" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
-    <hyperlink ref="E320" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
-    <hyperlink ref="B321" r:id="rId637" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
-    <hyperlink ref="E321" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
-    <hyperlink ref="B322" r:id="rId639" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
-    <hyperlink ref="E322" r:id="rId640" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
-    <hyperlink ref="B323" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
-    <hyperlink ref="E323" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
-    <hyperlink ref="B324" r:id="rId643" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
-    <hyperlink ref="E324" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
-    <hyperlink ref="B325" r:id="rId645" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
-    <hyperlink ref="E325" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
-    <hyperlink ref="B326" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
-    <hyperlink ref="E326" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
-    <hyperlink ref="B327" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
-    <hyperlink ref="E327" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
-    <hyperlink ref="B328" r:id="rId651" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
-    <hyperlink ref="E328" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
-    <hyperlink ref="B329" r:id="rId653" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
-    <hyperlink ref="E329" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
-    <hyperlink ref="B330" r:id="rId655" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
-    <hyperlink ref="E330" r:id="rId656" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
-    <hyperlink ref="B331" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
-    <hyperlink ref="E331" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
-    <hyperlink ref="B332" r:id="rId659" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
-    <hyperlink ref="E332" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
-    <hyperlink ref="B333" r:id="rId661" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
-    <hyperlink ref="E333" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
-    <hyperlink ref="B334" r:id="rId663" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
-    <hyperlink ref="E334" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
-    <hyperlink ref="B335" r:id="rId665" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
-    <hyperlink ref="E335" r:id="rId666" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
-    <hyperlink ref="B336" r:id="rId667" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
-    <hyperlink ref="E336" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
-    <hyperlink ref="B337" r:id="rId669" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
-    <hyperlink ref="E337" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
-    <hyperlink ref="B338" r:id="rId671" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
-    <hyperlink ref="E338" r:id="rId672" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
-    <hyperlink ref="B339" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
-    <hyperlink ref="E339" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
-    <hyperlink ref="B340" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
-    <hyperlink ref="E340" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
-    <hyperlink ref="B341" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
-    <hyperlink ref="E341" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
-    <hyperlink ref="B342" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
-    <hyperlink ref="E342" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
-    <hyperlink ref="B343" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
-    <hyperlink ref="E343" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
-    <hyperlink ref="B344" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
-    <hyperlink ref="E344" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
-    <hyperlink ref="B345" r:id="rId685" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
-    <hyperlink ref="E345" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
-    <hyperlink ref="B346" r:id="rId687" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
-    <hyperlink ref="E346" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
-    <hyperlink ref="B347" r:id="rId689" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
-    <hyperlink ref="E347" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
-    <hyperlink ref="B348" r:id="rId691" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
-    <hyperlink ref="E348" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
-    <hyperlink ref="B349" r:id="rId693" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
-    <hyperlink ref="E349" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
-    <hyperlink ref="B350" r:id="rId695" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
-    <hyperlink ref="E350" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
-    <hyperlink ref="B351" r:id="rId697" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
-    <hyperlink ref="E351" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
-    <hyperlink ref="B352" r:id="rId699" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
-    <hyperlink ref="E352" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
-    <hyperlink ref="B353" r:id="rId701" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
-    <hyperlink ref="E353" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
-    <hyperlink ref="B354" r:id="rId703" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
-    <hyperlink ref="E354" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
-    <hyperlink ref="B355" r:id="rId705" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
-    <hyperlink ref="E355" r:id="rId706" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
-    <hyperlink ref="B356" r:id="rId707" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
-    <hyperlink ref="E356" r:id="rId708" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
-    <hyperlink ref="B357" r:id="rId709" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
-    <hyperlink ref="E357" r:id="rId710" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
-    <hyperlink ref="B358" r:id="rId711" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
-    <hyperlink ref="E358" r:id="rId712" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
-    <hyperlink ref="B359" r:id="rId713" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
-    <hyperlink ref="E359" r:id="rId714" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
-    <hyperlink ref="B360" r:id="rId715" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
-    <hyperlink ref="E360" r:id="rId716" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
-    <hyperlink ref="B361" r:id="rId717" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
-    <hyperlink ref="E361" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
-    <hyperlink ref="B362" r:id="rId719" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
-    <hyperlink ref="E362" r:id="rId720" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
-    <hyperlink ref="B363" r:id="rId721" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
-    <hyperlink ref="E363" r:id="rId722" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
-    <hyperlink ref="B364" r:id="rId723" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
-    <hyperlink ref="E364" r:id="rId724" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
-    <hyperlink ref="B365" r:id="rId725" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
-    <hyperlink ref="E365" r:id="rId726" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
-    <hyperlink ref="B366" r:id="rId727" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
-    <hyperlink ref="E366" r:id="rId728" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
-    <hyperlink ref="B367" r:id="rId729" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
-    <hyperlink ref="E367" r:id="rId730" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
-    <hyperlink ref="B368" r:id="rId731" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
-    <hyperlink ref="E368" r:id="rId732" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
-    <hyperlink ref="B369" r:id="rId733" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
-    <hyperlink ref="E369" r:id="rId734" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
-    <hyperlink ref="B370" r:id="rId735" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
-    <hyperlink ref="E370" r:id="rId736" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
-    <hyperlink ref="B371" r:id="rId737" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
-    <hyperlink ref="E371" r:id="rId738" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
-    <hyperlink ref="B372" r:id="rId739" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
-    <hyperlink ref="E372" r:id="rId740" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
-    <hyperlink ref="B373" r:id="rId741" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
-    <hyperlink ref="E373" r:id="rId742" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
-    <hyperlink ref="B374" r:id="rId743" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
-    <hyperlink ref="E374" r:id="rId744" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
-    <hyperlink ref="B375" r:id="rId745" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
-    <hyperlink ref="E375" r:id="rId746" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
-    <hyperlink ref="B376" r:id="rId747" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
-    <hyperlink ref="E376" r:id="rId748" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
-    <hyperlink ref="B377" r:id="rId749" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
-    <hyperlink ref="E377" r:id="rId750" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
-    <hyperlink ref="B378" r:id="rId751" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
-    <hyperlink ref="E378" r:id="rId752" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
-    <hyperlink ref="B379" r:id="rId753" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
-    <hyperlink ref="E379" r:id="rId754" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
-    <hyperlink ref="B380" r:id="rId755" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
-    <hyperlink ref="E380" r:id="rId756" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
-    <hyperlink ref="B381" r:id="rId757" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
-    <hyperlink ref="E381" r:id="rId758" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
-    <hyperlink ref="B382" r:id="rId759" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
-    <hyperlink ref="E382" r:id="rId760" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
-    <hyperlink ref="B383" r:id="rId761" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
-    <hyperlink ref="E383" r:id="rId762" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
-    <hyperlink ref="B384" r:id="rId763" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
-    <hyperlink ref="E384" r:id="rId764" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
-    <hyperlink ref="B385" r:id="rId765" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
-    <hyperlink ref="E385" r:id="rId766" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
-    <hyperlink ref="B386" r:id="rId767" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
-    <hyperlink ref="E386" r:id="rId768" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
-    <hyperlink ref="B387" r:id="rId769" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
-    <hyperlink ref="E387" r:id="rId770" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
-    <hyperlink ref="B388" r:id="rId771" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
-    <hyperlink ref="E388" r:id="rId772" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
-    <hyperlink ref="B389" r:id="rId773" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
-    <hyperlink ref="E389" r:id="rId774" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
-    <hyperlink ref="B390" r:id="rId775" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
-    <hyperlink ref="E390" r:id="rId776" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
-    <hyperlink ref="B391" r:id="rId777" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
-    <hyperlink ref="E391" r:id="rId778" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
-    <hyperlink ref="B392" r:id="rId779" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
-    <hyperlink ref="E392" r:id="rId780" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
-    <hyperlink ref="B393" r:id="rId781" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
-    <hyperlink ref="E393" r:id="rId782" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
-    <hyperlink ref="B394" r:id="rId783" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
-    <hyperlink ref="E394" r:id="rId784" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
-    <hyperlink ref="B395" r:id="rId785" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
-    <hyperlink ref="E395" r:id="rId786" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
-    <hyperlink ref="B396" r:id="rId787" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
-    <hyperlink ref="E396" r:id="rId788" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
-    <hyperlink ref="B397" r:id="rId789" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
-    <hyperlink ref="E397" r:id="rId790" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
-    <hyperlink ref="B398" r:id="rId791" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
-    <hyperlink ref="E398" r:id="rId792" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
-    <hyperlink ref="B399" r:id="rId793" xr:uid="{00000000-0004-0000-0000-000018030000}"/>
-    <hyperlink ref="E399" r:id="rId794" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
-    <hyperlink ref="B400" r:id="rId795" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
-    <hyperlink ref="E400" r:id="rId796" xr:uid="{00000000-0004-0000-0000-00001B030000}"/>
-    <hyperlink ref="B401" r:id="rId797" xr:uid="{00000000-0004-0000-0000-00001C030000}"/>
-    <hyperlink ref="E401" r:id="rId798" xr:uid="{00000000-0004-0000-0000-00001D030000}"/>
-    <hyperlink ref="B402" r:id="rId799" xr:uid="{00000000-0004-0000-0000-00001E030000}"/>
-    <hyperlink ref="E402" r:id="rId800" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
-    <hyperlink ref="B403" r:id="rId801" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
-    <hyperlink ref="E403" r:id="rId802" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
-    <hyperlink ref="B404" r:id="rId803" xr:uid="{00000000-0004-0000-0000-000022030000}"/>
-    <hyperlink ref="E404" r:id="rId804" xr:uid="{00000000-0004-0000-0000-000023030000}"/>
-    <hyperlink ref="B405" r:id="rId805" xr:uid="{00000000-0004-0000-0000-000024030000}"/>
-    <hyperlink ref="E405" r:id="rId806" xr:uid="{00000000-0004-0000-0000-000025030000}"/>
-    <hyperlink ref="B406" r:id="rId807" xr:uid="{00000000-0004-0000-0000-000026030000}"/>
-    <hyperlink ref="E406" r:id="rId808" xr:uid="{00000000-0004-0000-0000-000027030000}"/>
-    <hyperlink ref="B407" r:id="rId809" xr:uid="{00000000-0004-0000-0000-000028030000}"/>
-    <hyperlink ref="E407" r:id="rId810" xr:uid="{00000000-0004-0000-0000-000029030000}"/>
-    <hyperlink ref="B408" r:id="rId811" xr:uid="{00000000-0004-0000-0000-00002A030000}"/>
-    <hyperlink ref="E408" r:id="rId812" xr:uid="{00000000-0004-0000-0000-00002B030000}"/>
-    <hyperlink ref="B409" r:id="rId813" xr:uid="{00000000-0004-0000-0000-00002C030000}"/>
-    <hyperlink ref="E409" r:id="rId814" xr:uid="{00000000-0004-0000-0000-00002D030000}"/>
-    <hyperlink ref="B410" r:id="rId815" xr:uid="{00000000-0004-0000-0000-00002E030000}"/>
-    <hyperlink ref="E410" r:id="rId816" xr:uid="{00000000-0004-0000-0000-00002F030000}"/>
-    <hyperlink ref="B411" r:id="rId817" xr:uid="{00000000-0004-0000-0000-000030030000}"/>
-    <hyperlink ref="E411" r:id="rId818" xr:uid="{00000000-0004-0000-0000-000031030000}"/>
-    <hyperlink ref="B412" r:id="rId819" xr:uid="{00000000-0004-0000-0000-000032030000}"/>
-    <hyperlink ref="E412" r:id="rId820" xr:uid="{00000000-0004-0000-0000-000033030000}"/>
-    <hyperlink ref="B413" r:id="rId821" xr:uid="{00000000-0004-0000-0000-000034030000}"/>
-    <hyperlink ref="E413" r:id="rId822" xr:uid="{00000000-0004-0000-0000-000035030000}"/>
-    <hyperlink ref="B414" r:id="rId823" xr:uid="{00000000-0004-0000-0000-000036030000}"/>
-    <hyperlink ref="E414" r:id="rId824" xr:uid="{00000000-0004-0000-0000-000037030000}"/>
-    <hyperlink ref="B415" r:id="rId825" xr:uid="{00000000-0004-0000-0000-000038030000}"/>
-    <hyperlink ref="E415" r:id="rId826" xr:uid="{00000000-0004-0000-0000-000039030000}"/>
-    <hyperlink ref="B416" r:id="rId827" xr:uid="{00000000-0004-0000-0000-00003A030000}"/>
-    <hyperlink ref="E416" r:id="rId828" xr:uid="{00000000-0004-0000-0000-00003B030000}"/>
-    <hyperlink ref="B417" r:id="rId829" xr:uid="{00000000-0004-0000-0000-00003C030000}"/>
-    <hyperlink ref="E417" r:id="rId830" xr:uid="{00000000-0004-0000-0000-00003D030000}"/>
-    <hyperlink ref="B418" r:id="rId831" xr:uid="{00000000-0004-0000-0000-00003E030000}"/>
-    <hyperlink ref="E418" r:id="rId832" xr:uid="{00000000-0004-0000-0000-00003F030000}"/>
-    <hyperlink ref="B419" r:id="rId833" xr:uid="{00000000-0004-0000-0000-000040030000}"/>
-    <hyperlink ref="E419" r:id="rId834" xr:uid="{00000000-0004-0000-0000-000041030000}"/>
-    <hyperlink ref="B420" r:id="rId835" xr:uid="{00000000-0004-0000-0000-000042030000}"/>
-    <hyperlink ref="E420" r:id="rId836" xr:uid="{00000000-0004-0000-0000-000043030000}"/>
-    <hyperlink ref="B421" r:id="rId837" xr:uid="{00000000-0004-0000-0000-000044030000}"/>
-    <hyperlink ref="E421" r:id="rId838" xr:uid="{00000000-0004-0000-0000-000045030000}"/>
-    <hyperlink ref="B422" r:id="rId839" xr:uid="{00000000-0004-0000-0000-000046030000}"/>
-    <hyperlink ref="E422" r:id="rId840" xr:uid="{00000000-0004-0000-0000-000047030000}"/>
-    <hyperlink ref="B423" r:id="rId841" xr:uid="{00000000-0004-0000-0000-000048030000}"/>
-    <hyperlink ref="E423" r:id="rId842" xr:uid="{00000000-0004-0000-0000-000049030000}"/>
-    <hyperlink ref="B424" r:id="rId843" xr:uid="{00000000-0004-0000-0000-00004A030000}"/>
-    <hyperlink ref="E424" r:id="rId844" xr:uid="{00000000-0004-0000-0000-00004B030000}"/>
-    <hyperlink ref="B425" r:id="rId845" xr:uid="{00000000-0004-0000-0000-00004C030000}"/>
-    <hyperlink ref="E425" r:id="rId846" xr:uid="{00000000-0004-0000-0000-00004D030000}"/>
-    <hyperlink ref="B426" r:id="rId847" xr:uid="{00000000-0004-0000-0000-00004E030000}"/>
-    <hyperlink ref="E426" r:id="rId848" xr:uid="{00000000-0004-0000-0000-00004F030000}"/>
-    <hyperlink ref="B427" r:id="rId849" xr:uid="{00000000-0004-0000-0000-000050030000}"/>
-    <hyperlink ref="E427" r:id="rId850" xr:uid="{00000000-0004-0000-0000-000051030000}"/>
-    <hyperlink ref="B428" r:id="rId851" xr:uid="{00000000-0004-0000-0000-000052030000}"/>
-    <hyperlink ref="E428" r:id="rId852" xr:uid="{00000000-0004-0000-0000-000053030000}"/>
-    <hyperlink ref="B429" r:id="rId853" xr:uid="{00000000-0004-0000-0000-000054030000}"/>
-    <hyperlink ref="E429" r:id="rId854" xr:uid="{00000000-0004-0000-0000-000055030000}"/>
-    <hyperlink ref="B430" r:id="rId855" xr:uid="{00000000-0004-0000-0000-000056030000}"/>
-    <hyperlink ref="E430" r:id="rId856" xr:uid="{00000000-0004-0000-0000-000057030000}"/>
-    <hyperlink ref="B431" r:id="rId857" xr:uid="{00000000-0004-0000-0000-000058030000}"/>
-    <hyperlink ref="E431" r:id="rId858" xr:uid="{00000000-0004-0000-0000-000059030000}"/>
-    <hyperlink ref="B432" r:id="rId859" xr:uid="{00000000-0004-0000-0000-00005A030000}"/>
-    <hyperlink ref="E432" r:id="rId860" xr:uid="{00000000-0004-0000-0000-00005B030000}"/>
-    <hyperlink ref="B433" r:id="rId861" xr:uid="{00000000-0004-0000-0000-00005C030000}"/>
-    <hyperlink ref="E433" r:id="rId862" xr:uid="{00000000-0004-0000-0000-00005D030000}"/>
-    <hyperlink ref="B434" r:id="rId863" xr:uid="{00000000-0004-0000-0000-00005E030000}"/>
-    <hyperlink ref="E434" r:id="rId864" xr:uid="{00000000-0004-0000-0000-00005F030000}"/>
-    <hyperlink ref="B435" r:id="rId865" xr:uid="{00000000-0004-0000-0000-000060030000}"/>
-    <hyperlink ref="E435" r:id="rId866" xr:uid="{00000000-0004-0000-0000-000061030000}"/>
-    <hyperlink ref="B436" r:id="rId867" xr:uid="{00000000-0004-0000-0000-000062030000}"/>
-    <hyperlink ref="E436" r:id="rId868" xr:uid="{00000000-0004-0000-0000-000063030000}"/>
-    <hyperlink ref="B437" r:id="rId869" xr:uid="{00000000-0004-0000-0000-000064030000}"/>
-    <hyperlink ref="E437" r:id="rId870" xr:uid="{00000000-0004-0000-0000-000065030000}"/>
-    <hyperlink ref="B438" r:id="rId871" xr:uid="{00000000-0004-0000-0000-000066030000}"/>
-    <hyperlink ref="E438" r:id="rId872" xr:uid="{00000000-0004-0000-0000-000067030000}"/>
-    <hyperlink ref="B439" r:id="rId873" xr:uid="{00000000-0004-0000-0000-000068030000}"/>
-    <hyperlink ref="E439" r:id="rId874" xr:uid="{00000000-0004-0000-0000-000069030000}"/>
-    <hyperlink ref="B440" r:id="rId875" xr:uid="{00000000-0004-0000-0000-00006A030000}"/>
-    <hyperlink ref="E440" r:id="rId876" xr:uid="{00000000-0004-0000-0000-00006B030000}"/>
-    <hyperlink ref="B441" r:id="rId877" xr:uid="{00000000-0004-0000-0000-00006C030000}"/>
-    <hyperlink ref="E441" r:id="rId878" xr:uid="{00000000-0004-0000-0000-00006D030000}"/>
-    <hyperlink ref="B442" r:id="rId879" xr:uid="{00000000-0004-0000-0000-00006E030000}"/>
-    <hyperlink ref="E442" r:id="rId880" xr:uid="{00000000-0004-0000-0000-00006F030000}"/>
-    <hyperlink ref="B443" r:id="rId881" xr:uid="{00000000-0004-0000-0000-000070030000}"/>
-    <hyperlink ref="E443" r:id="rId882" xr:uid="{00000000-0004-0000-0000-000071030000}"/>
-    <hyperlink ref="B444" r:id="rId883" xr:uid="{00000000-0004-0000-0000-000072030000}"/>
-    <hyperlink ref="E444" r:id="rId884" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
-    <hyperlink ref="B445" r:id="rId885" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
-    <hyperlink ref="E445" r:id="rId886" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
-    <hyperlink ref="B479" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
-    <hyperlink ref="E479" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
-    <hyperlink ref="B447" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
-    <hyperlink ref="E447" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
-    <hyperlink ref="B493" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
-    <hyperlink ref="E493" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
-    <hyperlink ref="B499" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
-    <hyperlink ref="E499" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
-    <hyperlink ref="B450" r:id="rId895" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
-    <hyperlink ref="E450" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
-    <hyperlink ref="B451" r:id="rId897" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
-    <hyperlink ref="E451" r:id="rId898" xr:uid="{00000000-0004-0000-0000-000081030000}"/>
-    <hyperlink ref="B452" r:id="rId899" xr:uid="{00000000-0004-0000-0000-000082030000}"/>
-    <hyperlink ref="E452" r:id="rId900" xr:uid="{00000000-0004-0000-0000-000083030000}"/>
-    <hyperlink ref="B453" r:id="rId901" xr:uid="{00000000-0004-0000-0000-000084030000}"/>
-    <hyperlink ref="E453" r:id="rId902" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
-    <hyperlink ref="B454" r:id="rId903" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
-    <hyperlink ref="E454" r:id="rId904" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
-    <hyperlink ref="B471" r:id="rId905" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
-    <hyperlink ref="E471" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
-    <hyperlink ref="B472" r:id="rId907" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
-    <hyperlink ref="E472" r:id="rId908" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
-    <hyperlink ref="B473" r:id="rId909" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
-    <hyperlink ref="E473" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
-    <hyperlink ref="B474" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
-    <hyperlink ref="E474" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
-    <hyperlink ref="B489" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
-    <hyperlink ref="E489" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
-    <hyperlink ref="B476" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
-    <hyperlink ref="E476" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
-    <hyperlink ref="B477" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
-    <hyperlink ref="E477" r:id="rId918" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
-    <hyperlink ref="B475" r:id="rId919" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
-    <hyperlink ref="E475" r:id="rId920" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
-    <hyperlink ref="B460" r:id="rId921" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
-    <hyperlink ref="E460" r:id="rId922" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
-    <hyperlink ref="B461" r:id="rId923" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
-    <hyperlink ref="E461" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
-    <hyperlink ref="B462" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
-    <hyperlink ref="E462" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
-    <hyperlink ref="B487" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
-    <hyperlink ref="E487" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
-    <hyperlink ref="B464" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
-    <hyperlink ref="E464" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
-    <hyperlink ref="B446" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
-    <hyperlink ref="E446" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
-    <hyperlink ref="B466" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
-    <hyperlink ref="E466" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
-    <hyperlink ref="B467" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
-    <hyperlink ref="E467" r:id="rId936" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
-    <hyperlink ref="B468" r:id="rId937" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
-    <hyperlink ref="E468" r:id="rId938" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
-    <hyperlink ref="B469" r:id="rId939" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
-    <hyperlink ref="E469" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
+    <hyperlink ref="B234" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="E234" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="B235" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="E235" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="B236" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="E236" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="B237" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="E237" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="B238" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="E238" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="B239" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="E239" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="B240" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="E240" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="B241" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="E241" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="B242" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="E242" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="B243" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="E243" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="B244" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="E244" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="B245" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="E245" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="B246" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="E246" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="B247" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="E247" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="B248" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="E248" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="B249" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="E249" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="B250" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="E250" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="B251" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="E251" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="B252" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="E252" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="B253" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="E253" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="B254" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="E254" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="B255" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="E255" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="B256" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="E256" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="B257" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="E257" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="B258" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="E258" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="B259" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="E259" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="B260" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="E260" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="B261" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="E261" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="B262" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="E262" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="B263" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="E263" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="B264" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="E264" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="B265" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="E265" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="B266" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="E266" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="B267" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="E267" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="B268" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="E268" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="B269" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="E269" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="B270" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="E270" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="B271" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="E271" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="B272" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="E272" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="B273" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="E273" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="B274" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="E274" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="B275" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="E275" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="B276" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="E276" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="B277" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="E277" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="B278" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="E278" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="B279" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="E279" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="B280" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="E280" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="B281" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="E281" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="B282" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="E282" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="B283" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="E283" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="B284" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="E284" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="B285" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="E285" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="B286" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="E286" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="B287" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="E287" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="B288" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="E288" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="B289" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="E289" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="B290" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="E290" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="B291" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="E291" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="B292" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="E292" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="B293" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="E293" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="B294" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="E294" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="B295" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="E295" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="B296" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="E296" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="B297" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="E297" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="B298" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="E298" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="B299" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="E299" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="B300" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="E300" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="B301" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="E301" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="B302" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="E302" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="B303" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="E303" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="B304" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="E304" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="B305" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="E305" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="B306" r:id="rId605" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="E306" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="B307" r:id="rId607" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="E307" r:id="rId608" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="B308" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="E308" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="B309" r:id="rId611" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="E309" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="B310" r:id="rId613" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="E310" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="B311" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="E311" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="B312" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="E312" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="B313" r:id="rId619" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="E313" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="B314" r:id="rId621" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="E314" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="B315" r:id="rId623" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="E315" r:id="rId624" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="B316" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="E316" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="B317" r:id="rId627" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="E317" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="B318" r:id="rId629" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="E318" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="B319" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="E319" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="B320" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="E320" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="B321" r:id="rId635" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="E321" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="B322" r:id="rId637" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="E322" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="B323" r:id="rId639" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="E323" r:id="rId640" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="B324" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="E324" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="B325" r:id="rId643" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="E325" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="B326" r:id="rId645" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="E326" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="B327" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="E327" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="B328" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="E328" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="B329" r:id="rId651" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="E329" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="B330" r:id="rId653" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="E330" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="B331" r:id="rId655" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="E331" r:id="rId656" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="B332" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="E332" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="B333" r:id="rId659" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="E333" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="B334" r:id="rId661" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="E334" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="B335" r:id="rId663" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="E335" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="B336" r:id="rId665" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="E336" r:id="rId666" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="B337" r:id="rId667" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="E337" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="B338" r:id="rId669" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="E338" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="B339" r:id="rId671" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="E339" r:id="rId672" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="B340" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="E340" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="B341" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="E341" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="B342" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="E342" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="B343" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="E343" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="B344" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="E344" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="B345" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
+    <hyperlink ref="E345" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
+    <hyperlink ref="B346" r:id="rId685" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
+    <hyperlink ref="E346" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
+    <hyperlink ref="B347" r:id="rId687" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
+    <hyperlink ref="E347" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
+    <hyperlink ref="B348" r:id="rId689" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
+    <hyperlink ref="E348" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
+    <hyperlink ref="B349" r:id="rId691" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
+    <hyperlink ref="E349" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
+    <hyperlink ref="B350" r:id="rId693" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
+    <hyperlink ref="E350" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
+    <hyperlink ref="B351" r:id="rId695" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
+    <hyperlink ref="E351" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
+    <hyperlink ref="B352" r:id="rId697" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
+    <hyperlink ref="E352" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
+    <hyperlink ref="B353" r:id="rId699" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
+    <hyperlink ref="E353" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
+    <hyperlink ref="B354" r:id="rId701" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
+    <hyperlink ref="E354" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
+    <hyperlink ref="B355" r:id="rId703" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
+    <hyperlink ref="E355" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
+    <hyperlink ref="B356" r:id="rId705" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
+    <hyperlink ref="E356" r:id="rId706" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
+    <hyperlink ref="B357" r:id="rId707" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
+    <hyperlink ref="E357" r:id="rId708" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
+    <hyperlink ref="B358" r:id="rId709" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
+    <hyperlink ref="E358" r:id="rId710" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
+    <hyperlink ref="B359" r:id="rId711" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
+    <hyperlink ref="E359" r:id="rId712" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
+    <hyperlink ref="B360" r:id="rId713" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
+    <hyperlink ref="E360" r:id="rId714" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
+    <hyperlink ref="B361" r:id="rId715" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
+    <hyperlink ref="E361" r:id="rId716" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
+    <hyperlink ref="B362" r:id="rId717" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
+    <hyperlink ref="E362" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
+    <hyperlink ref="B363" r:id="rId719" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
+    <hyperlink ref="E363" r:id="rId720" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
+    <hyperlink ref="B364" r:id="rId721" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
+    <hyperlink ref="E364" r:id="rId722" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
+    <hyperlink ref="B365" r:id="rId723" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
+    <hyperlink ref="E365" r:id="rId724" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
+    <hyperlink ref="B366" r:id="rId725" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
+    <hyperlink ref="E366" r:id="rId726" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
+    <hyperlink ref="B367" r:id="rId727" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
+    <hyperlink ref="E367" r:id="rId728" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
+    <hyperlink ref="B368" r:id="rId729" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
+    <hyperlink ref="E368" r:id="rId730" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
+    <hyperlink ref="B369" r:id="rId731" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
+    <hyperlink ref="E369" r:id="rId732" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
+    <hyperlink ref="B370" r:id="rId733" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
+    <hyperlink ref="E370" r:id="rId734" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
+    <hyperlink ref="B371" r:id="rId735" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
+    <hyperlink ref="E371" r:id="rId736" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
+    <hyperlink ref="B372" r:id="rId737" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
+    <hyperlink ref="E372" r:id="rId738" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
+    <hyperlink ref="B373" r:id="rId739" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
+    <hyperlink ref="E373" r:id="rId740" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
+    <hyperlink ref="B374" r:id="rId741" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
+    <hyperlink ref="E374" r:id="rId742" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
+    <hyperlink ref="B375" r:id="rId743" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
+    <hyperlink ref="E375" r:id="rId744" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
+    <hyperlink ref="B376" r:id="rId745" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
+    <hyperlink ref="E376" r:id="rId746" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
+    <hyperlink ref="B377" r:id="rId747" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
+    <hyperlink ref="E377" r:id="rId748" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
+    <hyperlink ref="B378" r:id="rId749" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
+    <hyperlink ref="E378" r:id="rId750" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
+    <hyperlink ref="B379" r:id="rId751" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
+    <hyperlink ref="E379" r:id="rId752" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
+    <hyperlink ref="B380" r:id="rId753" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
+    <hyperlink ref="E380" r:id="rId754" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
+    <hyperlink ref="B381" r:id="rId755" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
+    <hyperlink ref="E381" r:id="rId756" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
+    <hyperlink ref="B382" r:id="rId757" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
+    <hyperlink ref="E382" r:id="rId758" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
+    <hyperlink ref="B383" r:id="rId759" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
+    <hyperlink ref="E383" r:id="rId760" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
+    <hyperlink ref="B384" r:id="rId761" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
+    <hyperlink ref="E384" r:id="rId762" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
+    <hyperlink ref="B385" r:id="rId763" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
+    <hyperlink ref="E385" r:id="rId764" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
+    <hyperlink ref="B386" r:id="rId765" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
+    <hyperlink ref="E386" r:id="rId766" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
+    <hyperlink ref="B387" r:id="rId767" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
+    <hyperlink ref="E387" r:id="rId768" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
+    <hyperlink ref="B388" r:id="rId769" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
+    <hyperlink ref="E388" r:id="rId770" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
+    <hyperlink ref="B389" r:id="rId771" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
+    <hyperlink ref="E389" r:id="rId772" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
+    <hyperlink ref="B390" r:id="rId773" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
+    <hyperlink ref="E390" r:id="rId774" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
+    <hyperlink ref="B391" r:id="rId775" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
+    <hyperlink ref="E391" r:id="rId776" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
+    <hyperlink ref="B392" r:id="rId777" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
+    <hyperlink ref="E392" r:id="rId778" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
+    <hyperlink ref="B393" r:id="rId779" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
+    <hyperlink ref="E393" r:id="rId780" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
+    <hyperlink ref="B394" r:id="rId781" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
+    <hyperlink ref="E394" r:id="rId782" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
+    <hyperlink ref="B395" r:id="rId783" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
+    <hyperlink ref="E395" r:id="rId784" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
+    <hyperlink ref="B396" r:id="rId785" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
+    <hyperlink ref="E396" r:id="rId786" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
+    <hyperlink ref="B397" r:id="rId787" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
+    <hyperlink ref="E397" r:id="rId788" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
+    <hyperlink ref="B398" r:id="rId789" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
+    <hyperlink ref="E398" r:id="rId790" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
+    <hyperlink ref="B399" r:id="rId791" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
+    <hyperlink ref="E399" r:id="rId792" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
+    <hyperlink ref="B400" r:id="rId793" xr:uid="{00000000-0004-0000-0000-000018030000}"/>
+    <hyperlink ref="E400" r:id="rId794" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
+    <hyperlink ref="B401" r:id="rId795" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
+    <hyperlink ref="E401" r:id="rId796" xr:uid="{00000000-0004-0000-0000-00001B030000}"/>
+    <hyperlink ref="B402" r:id="rId797" xr:uid="{00000000-0004-0000-0000-00001C030000}"/>
+    <hyperlink ref="E402" r:id="rId798" xr:uid="{00000000-0004-0000-0000-00001D030000}"/>
+    <hyperlink ref="B403" r:id="rId799" xr:uid="{00000000-0004-0000-0000-00001E030000}"/>
+    <hyperlink ref="E403" r:id="rId800" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
+    <hyperlink ref="B404" r:id="rId801" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
+    <hyperlink ref="E404" r:id="rId802" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
+    <hyperlink ref="B405" r:id="rId803" xr:uid="{00000000-0004-0000-0000-000022030000}"/>
+    <hyperlink ref="E405" r:id="rId804" xr:uid="{00000000-0004-0000-0000-000023030000}"/>
+    <hyperlink ref="B406" r:id="rId805" xr:uid="{00000000-0004-0000-0000-000024030000}"/>
+    <hyperlink ref="E406" r:id="rId806" xr:uid="{00000000-0004-0000-0000-000025030000}"/>
+    <hyperlink ref="B407" r:id="rId807" xr:uid="{00000000-0004-0000-0000-000026030000}"/>
+    <hyperlink ref="E407" r:id="rId808" xr:uid="{00000000-0004-0000-0000-000027030000}"/>
+    <hyperlink ref="B408" r:id="rId809" xr:uid="{00000000-0004-0000-0000-000028030000}"/>
+    <hyperlink ref="E408" r:id="rId810" xr:uid="{00000000-0004-0000-0000-000029030000}"/>
+    <hyperlink ref="B409" r:id="rId811" xr:uid="{00000000-0004-0000-0000-00002A030000}"/>
+    <hyperlink ref="E409" r:id="rId812" xr:uid="{00000000-0004-0000-0000-00002B030000}"/>
+    <hyperlink ref="B410" r:id="rId813" xr:uid="{00000000-0004-0000-0000-00002C030000}"/>
+    <hyperlink ref="E410" r:id="rId814" xr:uid="{00000000-0004-0000-0000-00002D030000}"/>
+    <hyperlink ref="B411" r:id="rId815" xr:uid="{00000000-0004-0000-0000-00002E030000}"/>
+    <hyperlink ref="E411" r:id="rId816" xr:uid="{00000000-0004-0000-0000-00002F030000}"/>
+    <hyperlink ref="B412" r:id="rId817" xr:uid="{00000000-0004-0000-0000-000030030000}"/>
+    <hyperlink ref="E412" r:id="rId818" xr:uid="{00000000-0004-0000-0000-000031030000}"/>
+    <hyperlink ref="B413" r:id="rId819" xr:uid="{00000000-0004-0000-0000-000032030000}"/>
+    <hyperlink ref="E413" r:id="rId820" xr:uid="{00000000-0004-0000-0000-000033030000}"/>
+    <hyperlink ref="B414" r:id="rId821" xr:uid="{00000000-0004-0000-0000-000034030000}"/>
+    <hyperlink ref="E414" r:id="rId822" xr:uid="{00000000-0004-0000-0000-000035030000}"/>
+    <hyperlink ref="B415" r:id="rId823" xr:uid="{00000000-0004-0000-0000-000036030000}"/>
+    <hyperlink ref="E415" r:id="rId824" xr:uid="{00000000-0004-0000-0000-000037030000}"/>
+    <hyperlink ref="B416" r:id="rId825" xr:uid="{00000000-0004-0000-0000-000038030000}"/>
+    <hyperlink ref="E416" r:id="rId826" xr:uid="{00000000-0004-0000-0000-000039030000}"/>
+    <hyperlink ref="B417" r:id="rId827" xr:uid="{00000000-0004-0000-0000-00003A030000}"/>
+    <hyperlink ref="E417" r:id="rId828" xr:uid="{00000000-0004-0000-0000-00003B030000}"/>
+    <hyperlink ref="B418" r:id="rId829" xr:uid="{00000000-0004-0000-0000-00003C030000}"/>
+    <hyperlink ref="E418" r:id="rId830" xr:uid="{00000000-0004-0000-0000-00003D030000}"/>
+    <hyperlink ref="B419" r:id="rId831" xr:uid="{00000000-0004-0000-0000-00003E030000}"/>
+    <hyperlink ref="E419" r:id="rId832" xr:uid="{00000000-0004-0000-0000-00003F030000}"/>
+    <hyperlink ref="B420" r:id="rId833" xr:uid="{00000000-0004-0000-0000-000040030000}"/>
+    <hyperlink ref="E420" r:id="rId834" xr:uid="{00000000-0004-0000-0000-000041030000}"/>
+    <hyperlink ref="B421" r:id="rId835" xr:uid="{00000000-0004-0000-0000-000042030000}"/>
+    <hyperlink ref="E421" r:id="rId836" xr:uid="{00000000-0004-0000-0000-000043030000}"/>
+    <hyperlink ref="B422" r:id="rId837" xr:uid="{00000000-0004-0000-0000-000044030000}"/>
+    <hyperlink ref="E422" r:id="rId838" xr:uid="{00000000-0004-0000-0000-000045030000}"/>
+    <hyperlink ref="B423" r:id="rId839" xr:uid="{00000000-0004-0000-0000-000046030000}"/>
+    <hyperlink ref="E423" r:id="rId840" xr:uid="{00000000-0004-0000-0000-000047030000}"/>
+    <hyperlink ref="B424" r:id="rId841" xr:uid="{00000000-0004-0000-0000-000048030000}"/>
+    <hyperlink ref="E424" r:id="rId842" xr:uid="{00000000-0004-0000-0000-000049030000}"/>
+    <hyperlink ref="B425" r:id="rId843" xr:uid="{00000000-0004-0000-0000-00004A030000}"/>
+    <hyperlink ref="E425" r:id="rId844" xr:uid="{00000000-0004-0000-0000-00004B030000}"/>
+    <hyperlink ref="B426" r:id="rId845" xr:uid="{00000000-0004-0000-0000-00004C030000}"/>
+    <hyperlink ref="E426" r:id="rId846" xr:uid="{00000000-0004-0000-0000-00004D030000}"/>
+    <hyperlink ref="B427" r:id="rId847" xr:uid="{00000000-0004-0000-0000-00004E030000}"/>
+    <hyperlink ref="E427" r:id="rId848" xr:uid="{00000000-0004-0000-0000-00004F030000}"/>
+    <hyperlink ref="B428" r:id="rId849" xr:uid="{00000000-0004-0000-0000-000050030000}"/>
+    <hyperlink ref="E428" r:id="rId850" xr:uid="{00000000-0004-0000-0000-000051030000}"/>
+    <hyperlink ref="B429" r:id="rId851" xr:uid="{00000000-0004-0000-0000-000052030000}"/>
+    <hyperlink ref="E429" r:id="rId852" xr:uid="{00000000-0004-0000-0000-000053030000}"/>
+    <hyperlink ref="B430" r:id="rId853" xr:uid="{00000000-0004-0000-0000-000054030000}"/>
+    <hyperlink ref="E430" r:id="rId854" xr:uid="{00000000-0004-0000-0000-000055030000}"/>
+    <hyperlink ref="B431" r:id="rId855" xr:uid="{00000000-0004-0000-0000-000056030000}"/>
+    <hyperlink ref="E431" r:id="rId856" xr:uid="{00000000-0004-0000-0000-000057030000}"/>
+    <hyperlink ref="B432" r:id="rId857" xr:uid="{00000000-0004-0000-0000-000058030000}"/>
+    <hyperlink ref="E432" r:id="rId858" xr:uid="{00000000-0004-0000-0000-000059030000}"/>
+    <hyperlink ref="B433" r:id="rId859" xr:uid="{00000000-0004-0000-0000-00005A030000}"/>
+    <hyperlink ref="E433" r:id="rId860" xr:uid="{00000000-0004-0000-0000-00005B030000}"/>
+    <hyperlink ref="B434" r:id="rId861" xr:uid="{00000000-0004-0000-0000-00005C030000}"/>
+    <hyperlink ref="E434" r:id="rId862" xr:uid="{00000000-0004-0000-0000-00005D030000}"/>
+    <hyperlink ref="B435" r:id="rId863" xr:uid="{00000000-0004-0000-0000-00005E030000}"/>
+    <hyperlink ref="E435" r:id="rId864" xr:uid="{00000000-0004-0000-0000-00005F030000}"/>
+    <hyperlink ref="B436" r:id="rId865" xr:uid="{00000000-0004-0000-0000-000060030000}"/>
+    <hyperlink ref="E436" r:id="rId866" xr:uid="{00000000-0004-0000-0000-000061030000}"/>
+    <hyperlink ref="B437" r:id="rId867" xr:uid="{00000000-0004-0000-0000-000062030000}"/>
+    <hyperlink ref="E437" r:id="rId868" xr:uid="{00000000-0004-0000-0000-000063030000}"/>
+    <hyperlink ref="B438" r:id="rId869" xr:uid="{00000000-0004-0000-0000-000064030000}"/>
+    <hyperlink ref="E438" r:id="rId870" xr:uid="{00000000-0004-0000-0000-000065030000}"/>
+    <hyperlink ref="B439" r:id="rId871" xr:uid="{00000000-0004-0000-0000-000066030000}"/>
+    <hyperlink ref="E439" r:id="rId872" xr:uid="{00000000-0004-0000-0000-000067030000}"/>
+    <hyperlink ref="B440" r:id="rId873" xr:uid="{00000000-0004-0000-0000-000068030000}"/>
+    <hyperlink ref="E440" r:id="rId874" xr:uid="{00000000-0004-0000-0000-000069030000}"/>
+    <hyperlink ref="B441" r:id="rId875" xr:uid="{00000000-0004-0000-0000-00006A030000}"/>
+    <hyperlink ref="E441" r:id="rId876" xr:uid="{00000000-0004-0000-0000-00006B030000}"/>
+    <hyperlink ref="B442" r:id="rId877" xr:uid="{00000000-0004-0000-0000-00006C030000}"/>
+    <hyperlink ref="E442" r:id="rId878" xr:uid="{00000000-0004-0000-0000-00006D030000}"/>
+    <hyperlink ref="B443" r:id="rId879" xr:uid="{00000000-0004-0000-0000-00006E030000}"/>
+    <hyperlink ref="E443" r:id="rId880" xr:uid="{00000000-0004-0000-0000-00006F030000}"/>
+    <hyperlink ref="B444" r:id="rId881" xr:uid="{00000000-0004-0000-0000-000070030000}"/>
+    <hyperlink ref="E444" r:id="rId882" xr:uid="{00000000-0004-0000-0000-000071030000}"/>
+    <hyperlink ref="B445" r:id="rId883" xr:uid="{00000000-0004-0000-0000-000072030000}"/>
+    <hyperlink ref="E445" r:id="rId884" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
+    <hyperlink ref="B446" r:id="rId885" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
+    <hyperlink ref="E446" r:id="rId886" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
+    <hyperlink ref="B481" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
+    <hyperlink ref="E481" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
+    <hyperlink ref="B448" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
+    <hyperlink ref="E448" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
+    <hyperlink ref="B495" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="E495" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="B501" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="E501" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="B451" r:id="rId895" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
+    <hyperlink ref="E451" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
+    <hyperlink ref="B452" r:id="rId897" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
+    <hyperlink ref="E452" r:id="rId898" xr:uid="{00000000-0004-0000-0000-000081030000}"/>
+    <hyperlink ref="B453" r:id="rId899" xr:uid="{00000000-0004-0000-0000-000082030000}"/>
+    <hyperlink ref="E453" r:id="rId900" xr:uid="{00000000-0004-0000-0000-000083030000}"/>
+    <hyperlink ref="B454" r:id="rId901" xr:uid="{00000000-0004-0000-0000-000084030000}"/>
+    <hyperlink ref="E454" r:id="rId902" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
+    <hyperlink ref="B455" r:id="rId903" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
+    <hyperlink ref="E455" r:id="rId904" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
+    <hyperlink ref="B473" r:id="rId905" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
+    <hyperlink ref="E473" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
+    <hyperlink ref="B474" r:id="rId907" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
+    <hyperlink ref="E474" r:id="rId908" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
+    <hyperlink ref="B475" r:id="rId909" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
+    <hyperlink ref="E475" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
+    <hyperlink ref="B476" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
+    <hyperlink ref="E476" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
+    <hyperlink ref="B491" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
+    <hyperlink ref="E491" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
+    <hyperlink ref="B478" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
+    <hyperlink ref="E478" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
+    <hyperlink ref="B479" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
+    <hyperlink ref="E479" r:id="rId918" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
+    <hyperlink ref="B477" r:id="rId919" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
+    <hyperlink ref="E477" r:id="rId920" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
+    <hyperlink ref="B461" r:id="rId921" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
+    <hyperlink ref="E461" r:id="rId922" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
+    <hyperlink ref="B462" r:id="rId923" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
+    <hyperlink ref="E462" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
+    <hyperlink ref="B463" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
+    <hyperlink ref="E463" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
+    <hyperlink ref="B489" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
+    <hyperlink ref="E489" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
+    <hyperlink ref="B465" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
+    <hyperlink ref="E465" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
+    <hyperlink ref="B447" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
+    <hyperlink ref="E447" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
+    <hyperlink ref="B467" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
+    <hyperlink ref="E467" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
+    <hyperlink ref="B469" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
+    <hyperlink ref="E469" r:id="rId936" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
+    <hyperlink ref="B470" r:id="rId937" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
+    <hyperlink ref="E470" r:id="rId938" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
+    <hyperlink ref="B471" r:id="rId939" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
+    <hyperlink ref="E471" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
     <hyperlink ref="B9" r:id="rId941" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
     <hyperlink ref="E9" r:id="rId942" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
-    <hyperlink ref="B470" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
-    <hyperlink ref="E470" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
+    <hyperlink ref="B472" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
+    <hyperlink ref="E472" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
     <hyperlink ref="B3" r:id="rId945" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
     <hyperlink ref="E3" r:id="rId946" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
-    <hyperlink ref="B498" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
-    <hyperlink ref="E498" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
+    <hyperlink ref="B500" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
+    <hyperlink ref="E500" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
     <hyperlink ref="B5" r:id="rId949" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
     <hyperlink ref="E5" r:id="rId950" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
     <hyperlink ref="B6" r:id="rId951" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
@@ -14892,40 +14929,44 @@
     <hyperlink ref="E7" r:id="rId954" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
     <hyperlink ref="B8" r:id="rId955" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
     <hyperlink ref="E8" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
-    <hyperlink ref="B486" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
-    <hyperlink ref="E486" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
-    <hyperlink ref="B463" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
-    <hyperlink ref="E463" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
-    <hyperlink ref="B488" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
-    <hyperlink ref="E488" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
-    <hyperlink ref="B496" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
-    <hyperlink ref="E496" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
-    <hyperlink ref="B495" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
-    <hyperlink ref="E495" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
-    <hyperlink ref="B491" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
-    <hyperlink ref="E491" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
-    <hyperlink ref="B494" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
-    <hyperlink ref="E494" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
-    <hyperlink ref="B492" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
-    <hyperlink ref="E492" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
-    <hyperlink ref="B448" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
-    <hyperlink ref="E448" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
-    <hyperlink ref="B449" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
-    <hyperlink ref="E449" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
-    <hyperlink ref="B502" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
-    <hyperlink ref="B456" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
-    <hyperlink ref="E456" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
-    <hyperlink ref="B497" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
-    <hyperlink ref="E497" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
-    <hyperlink ref="B500" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
-    <hyperlink ref="E500" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
-    <hyperlink ref="B501" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
-    <hyperlink ref="E501" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="B488" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
+    <hyperlink ref="E488" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
+    <hyperlink ref="B464" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
+    <hyperlink ref="E464" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
+    <hyperlink ref="B490" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
+    <hyperlink ref="E490" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
+    <hyperlink ref="B498" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
+    <hyperlink ref="E498" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
+    <hyperlink ref="B497" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
+    <hyperlink ref="E497" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
+    <hyperlink ref="B493" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
+    <hyperlink ref="E493" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
+    <hyperlink ref="B496" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
+    <hyperlink ref="E496" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
+    <hyperlink ref="B494" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
+    <hyperlink ref="E494" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
+    <hyperlink ref="B449" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
+    <hyperlink ref="E449" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
+    <hyperlink ref="B450" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
+    <hyperlink ref="E450" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
+    <hyperlink ref="B504" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
+    <hyperlink ref="B457" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
+    <hyperlink ref="E457" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
+    <hyperlink ref="B499" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="E499" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="B502" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="E502" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="B503" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="E503" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
     <hyperlink ref="B4" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
     <hyperlink ref="E4" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
-    <hyperlink ref="B465" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
-    <hyperlink ref="E465" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
-    <hyperlink ref="E502" r:id="rId990" display="http://arenapsgm.ru/tproduct/805761453482-mafia-the-old-country-ps5" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="B466" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
+    <hyperlink ref="E466" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
+    <hyperlink ref="E504" r:id="rId990" display="http://arenapsgm.ru/tproduct/805761453482-mafia-the-old-country-ps5" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="B233" r:id="rId991" xr:uid="{5805A6F2-0EF9-1F4A-8D09-66C7671000F2}"/>
+    <hyperlink ref="E233" r:id="rId992" xr:uid="{1BC12FBC-8C0F-0147-9432-6E8B7A216B9C}"/>
+    <hyperlink ref="B468" r:id="rId993" xr:uid="{4D34D918-BCED-C543-B645-3BFFE3D127A1}"/>
+    <hyperlink ref="E468" r:id="rId994" xr:uid="{9FE6797E-5972-0140-8CB9-C377918FF9A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A3C466-BE45-9149-89D1-268CDE89CF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE84AEF-307E-6744-A661-3195F1757D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1689">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -5026,21 +5026,12 @@
     <t>Gears of War Reloaded PS5</t>
   </si>
   <si>
-    <t>FC 26</t>
-  </si>
-  <si>
     <t>https://arenapsgm.ru/fc26buy</t>
   </si>
   <si>
     <t>https://arenapsgm.ru/p2p3/tproduct/766947022232-call-of-duty-black-ops-7-cross-gen-bundl</t>
   </si>
   <si>
-    <t>Call of Duty Black Ops 7</t>
-  </si>
-  <si>
-    <t>Battlefield 6 Standard Edition PS5</t>
-  </si>
-  <si>
     <t>https://arenapsgm.ru/p2p3/tproduct/700667129492-battlefield-6-standard-edition-ps5-navse</t>
   </si>
   <si>
@@ -5081,6 +5072,21 @@
   </si>
   <si>
     <t>Little Nightmares III</t>
+  </si>
+  <si>
+    <t>Battlefield 6 Standard Edition PS5 НАВСЕГДА</t>
+  </si>
+  <si>
+    <t>Call of Duty Black Ops 7 НАВСЕГДА</t>
+  </si>
+  <si>
+    <t>FC 26 НАВСЕГДА</t>
+  </si>
+  <si>
+    <t>Cronos The New Dawn PS5</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/newgame/tproduct/414358136302-cronos-the-new-dawn-ps5</t>
   </si>
 </sst>
 </file>
@@ -5499,10 +5505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E519"/>
+  <dimension ref="A1:E520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A489" sqref="A489:XFD489"/>
+    <sheetView tabSelected="1" topLeftCell="D504" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E524" sqref="E524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13240,10 +13246,10 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="E456" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -13620,66 +13626,66 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="E481" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="E482" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="E483" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="E484" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="E485" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="E486" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="E487" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="E488" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
@@ -14116,34 +14122,42 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E516" t="s">
         <v>1668</v>
-      </c>
-      <c r="E516" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1671</v>
+        <v>1685</v>
       </c>
       <c r="E517" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1672</v>
+        <v>1684</v>
       </c>
       <c r="E518" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E519" t="s">
-        <v>1675</v>
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E520" t="s">
+        <v>1688</v>
       </c>
     </row>
   </sheetData>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE84AEF-307E-6744-A661-3195F1757D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE5FB0-06D8-5C4E-8A79-7848EAA551AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1693">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -5087,6 +5087,18 @@
   </si>
   <si>
     <t>https://arenapsgm.ru/newgame/tproduct/414358136302-cronos-the-new-dawn-ps5</t>
+  </si>
+  <si>
+    <t>Hell is Us PS5</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/tproduct/590037855892-hell-is-us-ps5</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/p2p3/tproduct/423814294732-nba-2k26-for-ps5-navsegda</t>
+  </si>
+  <si>
+    <t>NBA 2K26 for NBA 26 НАВСЕГДА</t>
   </si>
 </sst>
 </file>
@@ -5505,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E520"/>
+  <dimension ref="A1:E522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D504" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E524" sqref="E524"/>
+    <sheetView tabSelected="1" topLeftCell="A508" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A524" sqref="A524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14158,6 +14170,22 @@
       </c>
       <c r="E520" t="s">
         <v>1688</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E521" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1691</v>
       </c>
     </row>
   </sheetData>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CE5FB0-06D8-5C4E-8A79-7848EAA551AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB56F58F-C953-A84A-9C42-B1CAD93348D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1695">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -5095,10 +5095,16 @@
     <t>https://arenapsgm.ru/tproduct/590037855892-hell-is-us-ps5</t>
   </si>
   <si>
-    <t>https://arenapsgm.ru/p2p3/tproduct/423814294732-nba-2k26-for-ps5-navsegda</t>
-  </si>
-  <si>
-    <t>NBA 2K26 for NBA 26 НАВСЕГДА</t>
+    <t>https://arenapsgm.ru/tproduct/284499310972-hollow-knight-silksong-ps4ps5</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/tproduct/432846042272-silent-hill-f-ps5</t>
+  </si>
+  <si>
+    <t>NBA 2K26 for NBA 26</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/tproduct/229170210962-nba-2k26-ps5</t>
   </si>
 </sst>
 </file>
@@ -5519,8 +5525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A524" sqref="A524"/>
+    <sheetView tabSelected="1" topLeftCell="A504" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A518" sqref="A518:XFD518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13662,7 +13668,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="E484" t="s">
         <v>1676</v>
@@ -13670,7 +13676,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="E485" t="s">
         <v>1676</v>
@@ -13678,7 +13684,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="E486" t="s">
         <v>1676</v>
@@ -13686,94 +13692,112 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1682</v>
-      </c>
-      <c r="E487" t="s">
-        <v>1676</v>
+        <v>437</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C487" s="2">
+        <v>690</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>1683</v>
-      </c>
-      <c r="E488" t="s">
-        <v>1676</v>
+        <v>1</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C488" s="2">
+        <v>290</v>
+      </c>
+      <c r="D488" t="s">
+        <v>973</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>920</v>
+        <v>478</v>
       </c>
       <c r="C489" s="2">
-        <v>690</v>
+        <v>899</v>
       </c>
       <c r="D489" t="s">
-        <v>1111</v>
+        <v>972</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1579</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>1</v>
+        <v>1654</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C490" s="2">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="D490" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C491" s="2">
-        <v>899</v>
+        <v>359</v>
       </c>
       <c r="D491" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>1654</v>
+        <v>4</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C492" s="2">
-        <v>449</v>
+        <v>359</v>
       </c>
       <c r="D492" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C493" s="2">
         <v>359</v>
@@ -13782,287 +13806,287 @@
         <v>976</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>483</v>
+        <v>955</v>
       </c>
       <c r="C494" s="2">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="D494" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1141</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>5</v>
+        <v>451</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>484</v>
+        <v>940</v>
       </c>
       <c r="C495" s="2">
-        <v>359</v>
+        <v>639</v>
       </c>
       <c r="D495" t="s">
-        <v>976</v>
+        <v>1121</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1142</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="C496" s="2">
-        <v>449</v>
+        <v>790</v>
       </c>
       <c r="D496" t="s">
-        <v>989</v>
+        <v>1128</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="C497" s="2">
-        <v>639</v>
+        <v>899</v>
       </c>
       <c r="D497" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>957</v>
+        <v>480</v>
       </c>
       <c r="C498" s="2">
-        <v>790</v>
+        <v>539</v>
       </c>
       <c r="D498" t="s">
-        <v>1128</v>
+        <v>974</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>1616</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>933</v>
+        <v>960</v>
       </c>
       <c r="C499" s="2">
-        <v>899</v>
+        <v>450</v>
       </c>
       <c r="D499" t="s">
-        <v>1113</v>
+        <v>1130</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1592</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>2</v>
+        <v>471</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>480</v>
+        <v>962</v>
       </c>
       <c r="C500" s="2">
-        <v>539</v>
+        <v>639</v>
       </c>
       <c r="D500" t="s">
-        <v>974</v>
+        <v>1132</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1138</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>960</v>
+        <v>922</v>
       </c>
       <c r="C501" s="2">
-        <v>450</v>
+        <v>939</v>
       </c>
       <c r="D501" t="s">
-        <v>1130</v>
+        <v>1112</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1619</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C502" s="2">
-        <v>639</v>
+        <v>899</v>
       </c>
       <c r="D502" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>439</v>
+        <v>1655</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>922</v>
+        <v>959</v>
       </c>
       <c r="C503" s="2">
-        <v>939</v>
+        <v>350</v>
       </c>
       <c r="D503" t="s">
-        <v>1112</v>
+        <v>1129</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>1581</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C504" s="2">
-        <v>899</v>
+        <v>350</v>
       </c>
       <c r="D504" t="s">
-        <v>1131</v>
+        <v>1105</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1655</v>
+        <v>475</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="C505" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="D505" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>1618</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>468</v>
+        <v>1653</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="C506" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D506" t="s">
-        <v>1105</v>
+        <v>1127</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>1617</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>475</v>
+        <v>1652</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>967</v>
+        <v>923</v>
       </c>
       <c r="C507" s="2">
-        <v>499</v>
+        <v>899</v>
       </c>
       <c r="D507" t="s">
-        <v>1135</v>
+        <v>1113</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>1625</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>950</v>
+        <v>968</v>
       </c>
       <c r="C508" s="2">
-        <v>349</v>
+        <v>499</v>
       </c>
       <c r="D508" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>1609</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1652</v>
+        <v>476</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>923</v>
+        <v>969</v>
       </c>
       <c r="C509" s="2">
-        <v>899</v>
+        <v>499</v>
       </c>
       <c r="D509" t="s">
-        <v>1113</v>
+        <v>1133</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>1582</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C510" s="2">
         <v>499</v>
@@ -14071,139 +14095,121 @@
         <v>1133</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>1626</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>476</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="C511" s="2">
-        <v>499</v>
-      </c>
-      <c r="D511" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E511" s="1" t="s">
-        <v>1627</v>
+        <v>1663</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1650</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="C512" s="2">
-        <v>499</v>
-      </c>
-      <c r="D512" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E512" s="1" t="s">
-        <v>1642</v>
+        <v>1667</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="E513" t="s">
-        <v>1646</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1667</v>
+        <v>1686</v>
       </c>
       <c r="E514" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1666</v>
+        <v>1685</v>
       </c>
       <c r="E515" t="s">
-        <v>1665</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="E516" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1685</v>
+        <v>1671</v>
       </c>
       <c r="E517" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="E518" t="s">
-        <v>1670</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1671</v>
+        <v>1689</v>
       </c>
       <c r="E519" t="s">
-        <v>1672</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="E520" t="s">
-        <v>1688</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1689</v>
+        <v>1679</v>
       </c>
       <c r="E521" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E522" t="s">
         <v>1692</v>
-      </c>
-      <c r="E522" t="s">
-        <v>1691</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B491" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E491" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B490" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E490" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B500" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E500" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B492" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E492" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B493" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E493" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B494" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E494" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B495" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E495" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B489" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E489" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B488" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E488" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B498" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E498" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B490" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E490" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B491" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E491" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B492" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E492" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B493" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E493" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="B11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
@@ -15076,14 +15082,14 @@
     <hyperlink ref="E445" r:id="rId884" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
     <hyperlink ref="B446" r:id="rId885" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
     <hyperlink ref="E446" r:id="rId886" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
-    <hyperlink ref="B489" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
-    <hyperlink ref="E489" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
+    <hyperlink ref="B487" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
+    <hyperlink ref="E487" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
     <hyperlink ref="B448" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
     <hyperlink ref="E448" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
-    <hyperlink ref="B503" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
-    <hyperlink ref="E503" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
-    <hyperlink ref="B509" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
-    <hyperlink ref="E509" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="B501" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="E501" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="B507" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="E507" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
     <hyperlink ref="B451" r:id="rId895" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
     <hyperlink ref="E451" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
     <hyperlink ref="B452" r:id="rId897" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
@@ -15102,8 +15108,8 @@
     <hyperlink ref="E475" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
     <hyperlink ref="B476" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
     <hyperlink ref="E476" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
-    <hyperlink ref="B499" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
-    <hyperlink ref="E499" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
+    <hyperlink ref="B497" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
+    <hyperlink ref="E497" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
     <hyperlink ref="B478" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
     <hyperlink ref="E478" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
     <hyperlink ref="B479" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
@@ -15116,8 +15122,8 @@
     <hyperlink ref="E462" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
     <hyperlink ref="B463" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
     <hyperlink ref="E463" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
-    <hyperlink ref="B497" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
-    <hyperlink ref="E497" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
+    <hyperlink ref="B495" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
+    <hyperlink ref="E495" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
     <hyperlink ref="B465" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
     <hyperlink ref="E465" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
     <hyperlink ref="B447" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
@@ -15136,8 +15142,8 @@
     <hyperlink ref="E472" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
     <hyperlink ref="B3" r:id="rId945" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
     <hyperlink ref="E3" r:id="rId946" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
-    <hyperlink ref="B508" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
-    <hyperlink ref="E508" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
+    <hyperlink ref="B506" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
+    <hyperlink ref="E506" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
     <hyperlink ref="B5" r:id="rId949" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
     <hyperlink ref="E5" r:id="rId950" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
     <hyperlink ref="B6" r:id="rId951" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
@@ -15146,40 +15152,40 @@
     <hyperlink ref="E7" r:id="rId954" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
     <hyperlink ref="B8" r:id="rId955" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
     <hyperlink ref="E8" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
-    <hyperlink ref="B496" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
-    <hyperlink ref="E496" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
+    <hyperlink ref="B494" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
+    <hyperlink ref="E494" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
     <hyperlink ref="B464" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
     <hyperlink ref="E464" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
-    <hyperlink ref="B498" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
-    <hyperlink ref="E498" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
-    <hyperlink ref="B506" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
-    <hyperlink ref="E506" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
-    <hyperlink ref="B505" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
-    <hyperlink ref="E505" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
-    <hyperlink ref="B501" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
-    <hyperlink ref="E501" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
-    <hyperlink ref="B504" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
-    <hyperlink ref="E504" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
-    <hyperlink ref="B502" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
-    <hyperlink ref="E502" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
+    <hyperlink ref="B496" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
+    <hyperlink ref="E496" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
+    <hyperlink ref="B504" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
+    <hyperlink ref="E504" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
+    <hyperlink ref="B503" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
+    <hyperlink ref="E503" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
+    <hyperlink ref="B499" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
+    <hyperlink ref="E499" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
+    <hyperlink ref="B502" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
+    <hyperlink ref="E502" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
+    <hyperlink ref="B500" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
+    <hyperlink ref="E500" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
     <hyperlink ref="B449" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
     <hyperlink ref="E449" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
     <hyperlink ref="B450" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
     <hyperlink ref="E450" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
-    <hyperlink ref="B512" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
+    <hyperlink ref="B510" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
     <hyperlink ref="B457" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
     <hyperlink ref="E457" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
-    <hyperlink ref="B507" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
-    <hyperlink ref="E507" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
-    <hyperlink ref="B510" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
-    <hyperlink ref="E510" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
-    <hyperlink ref="B511" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
-    <hyperlink ref="E511" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="B505" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="E505" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="B508" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="E508" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="B509" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="E509" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
     <hyperlink ref="B4" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
     <hyperlink ref="E4" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
     <hyperlink ref="B466" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
     <hyperlink ref="E466" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
-    <hyperlink ref="E512" r:id="rId990" display="http://arenapsgm.ru/tproduct/805761453482-mafia-the-old-country-ps5" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="E510" r:id="rId990" display="http://arenapsgm.ru/tproduct/805761453482-mafia-the-old-country-ps5" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
     <hyperlink ref="B233" r:id="rId991" xr:uid="{5805A6F2-0EF9-1F4A-8D09-66C7671000F2}"/>
     <hyperlink ref="E233" r:id="rId992" xr:uid="{1BC12FBC-8C0F-0147-9432-6E8B7A216B9C}"/>
     <hyperlink ref="B468" r:id="rId993" xr:uid="{4D34D918-BCED-C543-B645-3BFFE3D127A1}"/>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5370148C-7F3A-B347-812E-5D1AF4604875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426CB4DC-3D42-9D4D-B8FF-F39B191C3498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="1702">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -5120,6 +5120,12 @@
   </si>
   <si>
     <t>A Quiet Place  The Road Ahead PS5</t>
+  </si>
+  <si>
+    <t>Claws of Awaji  Assassin's Creed Shadows PS5</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/tproduct/524735406642-claws-of-awaji-assassins-creed-shadows-p</t>
   </si>
 </sst>
 </file>
@@ -5538,10 +5544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E524"/>
+  <dimension ref="A1:E525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446"/>
+    <sheetView tabSelected="1" topLeftCell="B491" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E530" sqref="E530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14224,6 +14230,14 @@
       </c>
       <c r="E524" t="s">
         <v>1663</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1701</v>
       </c>
     </row>
   </sheetData>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426CB4DC-3D42-9D4D-B8FF-F39B191C3498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4027EC26-7D72-5646-B247-C7DE1B48DF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="1702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="1703">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -4840,9 +4840,6 @@
     <t>SILENT HILL f</t>
   </si>
   <si>
-    <t>Dying Light The Beast</t>
-  </si>
-  <si>
     <t>Little Nightmares III</t>
   </si>
   <si>
@@ -5126,6 +5123,12 @@
   </si>
   <si>
     <t>https://arenapsgm.ru/tproduct/524735406642-claws-of-awaji-assassins-creed-shadows-p</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/tproduct/555739873852-dying-light-the-beast-ps5</t>
+  </si>
+  <si>
+    <t>Dying Light: The Beast PS5</t>
   </si>
 </sst>
 </file>
@@ -5546,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B491" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E530" sqref="E530"/>
+    <sheetView tabSelected="1" topLeftCell="B481" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A525" sqref="A525:XFD525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5579,7 +5582,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E2" t="s">
         <v>1573</v>
@@ -5604,7 +5607,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>898</v>
@@ -5672,7 +5675,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>882</v>
@@ -5689,7 +5692,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>875</v>
@@ -5723,7 +5726,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>414</v>
@@ -5740,7 +5743,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>415</v>
@@ -5757,7 +5760,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>416</v>
@@ -5842,7 +5845,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>421</v>
@@ -5876,7 +5879,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>423</v>
@@ -5910,7 +5913,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>425</v>
@@ -5927,7 +5930,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>426</v>
@@ -6012,11 +6015,11 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -6038,7 +6041,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>432</v>
@@ -6089,7 +6092,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>435</v>
@@ -6140,7 +6143,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>438</v>
@@ -6375,7 +6378,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>452</v>
@@ -6392,7 +6395,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>453</v>
@@ -6426,7 +6429,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>455</v>
@@ -6443,7 +6446,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>456</v>
@@ -6477,7 +6480,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>458</v>
@@ -6494,7 +6497,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>459</v>
@@ -6511,7 +6514,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>460</v>
@@ -6562,7 +6565,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>463</v>
@@ -6613,7 +6616,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>466</v>
@@ -6630,7 +6633,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>467</v>
@@ -6664,7 +6667,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>469</v>
@@ -6681,7 +6684,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>470</v>
@@ -6698,7 +6701,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>471</v>
@@ -6715,7 +6718,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>472</v>
@@ -6749,7 +6752,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>474</v>
@@ -6800,7 +6803,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>477</v>
@@ -6817,7 +6820,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>478</v>
@@ -6834,7 +6837,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>479</v>
@@ -6851,7 +6854,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>480</v>
@@ -6868,7 +6871,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>481</v>
@@ -6885,7 +6888,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>482</v>
@@ -6902,7 +6905,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>483</v>
@@ -7140,7 +7143,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>497</v>
@@ -7174,7 +7177,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>499</v>
@@ -7225,7 +7228,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>502</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>515</v>
@@ -7497,7 +7500,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>518</v>
@@ -7582,7 +7585,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>523</v>
@@ -7599,7 +7602,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>524</v>
@@ -7650,7 +7653,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>527</v>
@@ -7769,7 +7772,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>534</v>
@@ -7803,7 +7806,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>536</v>
@@ -7922,7 +7925,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>543</v>
@@ -7956,7 +7959,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>545</v>
@@ -8058,7 +8061,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>551</v>
@@ -8126,7 +8129,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>555</v>
@@ -8262,7 +8265,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>563</v>
@@ -8415,7 +8418,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>572</v>
@@ -8517,7 +8520,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>578</v>
@@ -8568,7 +8571,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>581</v>
@@ -8687,7 +8690,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>588</v>
@@ -8704,7 +8707,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>589</v>
@@ -8806,7 +8809,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>595</v>
@@ -8874,7 +8877,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>599</v>
@@ -9010,7 +9013,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>607</v>
@@ -9044,7 +9047,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>609</v>
@@ -9078,7 +9081,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>611</v>
@@ -9129,7 +9132,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>614</v>
@@ -9214,7 +9217,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>619</v>
@@ -9231,7 +9234,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>620</v>
@@ -9265,7 +9268,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>622</v>
@@ -9350,7 +9353,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>627</v>
@@ -9469,7 +9472,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>634</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>635</v>
@@ -9571,7 +9574,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>639</v>
@@ -9605,7 +9608,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>641</v>
@@ -9707,7 +9710,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>647</v>
@@ -13107,7 +13110,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>846</v>
@@ -13124,7 +13127,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>847</v>
@@ -13714,86 +13717,95 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E487" t="s">
-        <v>1600</v>
+        <v>371</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C487" s="2">
+        <v>690</v>
+      </c>
+      <c r="D487" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>371</v>
+        <v>1</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>848</v>
+        <v>407</v>
       </c>
       <c r="C488" s="2">
-        <v>690</v>
+        <v>290</v>
       </c>
       <c r="D488" t="s">
-        <v>1039</v>
+        <v>901</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>1507</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C489" s="2">
-        <v>290</v>
+        <v>899</v>
       </c>
       <c r="D489" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>0</v>
+        <v>1579</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C490" s="2">
-        <v>899</v>
+        <v>449</v>
       </c>
       <c r="D490" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>1579</v>
+        <v>3</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C491" s="2">
-        <v>449</v>
+        <v>359</v>
       </c>
       <c r="D491" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C492" s="2">
         <v>359</v>
@@ -13802,15 +13814,15 @@
         <v>904</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C493" s="2">
         <v>359</v>
@@ -13819,270 +13831,270 @@
         <v>904</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>5</v>
+        <v>397</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>412</v>
+        <v>883</v>
       </c>
       <c r="C494" s="2">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="D494" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>1070</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="C495" s="2">
-        <v>449</v>
+        <v>639</v>
       </c>
       <c r="D495" t="s">
-        <v>917</v>
+        <v>1049</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>1542</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
       <c r="C496" s="2">
-        <v>639</v>
+        <v>790</v>
       </c>
       <c r="D496" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1527</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="C497" s="2">
-        <v>790</v>
+        <v>899</v>
       </c>
       <c r="D497" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>1544</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>379</v>
+        <v>2</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>861</v>
+        <v>408</v>
       </c>
       <c r="C498" s="2">
-        <v>899</v>
+        <v>539</v>
       </c>
       <c r="D498" t="s">
-        <v>1041</v>
+        <v>902</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>1520</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>408</v>
+        <v>888</v>
       </c>
       <c r="C499" s="2">
-        <v>539</v>
+        <v>450</v>
       </c>
       <c r="D499" t="s">
-        <v>902</v>
+        <v>1058</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1066</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C500" s="2">
-        <v>450</v>
+        <v>639</v>
       </c>
       <c r="D500" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="C501" s="2">
-        <v>639</v>
+        <v>939</v>
       </c>
       <c r="D501" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1549</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>373</v>
+        <v>1695</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>850</v>
+        <v>889</v>
       </c>
       <c r="C502" s="2">
-        <v>939</v>
+        <v>899</v>
       </c>
       <c r="D502" t="s">
-        <v>1040</v>
+        <v>1059</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1509</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1696</v>
+        <v>1580</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C503" s="2">
-        <v>899</v>
+        <v>350</v>
       </c>
       <c r="D503" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1580</v>
+        <v>1665</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C504" s="2">
         <v>350</v>
       </c>
       <c r="D504" t="s">
-        <v>1057</v>
+        <v>1033</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1666</v>
+        <v>1696</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="C505" s="2">
-        <v>350</v>
+        <v>499</v>
       </c>
       <c r="D505" t="s">
-        <v>1033</v>
+        <v>1063</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>1545</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>1697</v>
+        <v>1578</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="C506" s="2">
-        <v>499</v>
+        <v>349</v>
       </c>
       <c r="D506" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>1553</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>878</v>
+        <v>851</v>
       </c>
       <c r="C507" s="2">
-        <v>349</v>
+        <v>899</v>
       </c>
       <c r="D507" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>1537</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>851</v>
+        <v>896</v>
       </c>
       <c r="C508" s="2">
-        <v>899</v>
+        <v>499</v>
       </c>
       <c r="D508" t="s">
-        <v>1041</v>
+        <v>1061</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>1510</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>1576</v>
+        <v>405</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C509" s="2">
         <v>499</v>
@@ -14091,15 +14103,15 @@
         <v>1061</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>405</v>
+        <v>1575</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C510" s="2">
         <v>499</v>
@@ -14108,109 +14120,100 @@
         <v>1061</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>1555</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="C511" s="2">
-        <v>499</v>
-      </c>
-      <c r="D511" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E511" s="1" t="s">
-        <v>1570</v>
+        <v>1664</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>1665</v>
+        <v>1591</v>
       </c>
       <c r="E512" t="s">
-        <v>1572</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E513" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>1590</v>
+        <v>1609</v>
       </c>
       <c r="E514" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E515" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E516" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>1608</v>
+        <v>1595</v>
       </c>
       <c r="E517" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>1595</v>
+        <v>1610</v>
       </c>
       <c r="E518" t="s">
-        <v>1596</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="E519" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="E520" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1617</v>
+        <v>1603</v>
       </c>
       <c r="E521" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="E522" t="s">
         <v>1615</v>
@@ -14218,23 +14221,23 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1605</v>
+        <v>1663</v>
       </c>
       <c r="E523" t="s">
-        <v>1616</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1664</v>
+        <v>1699</v>
       </c>
       <c r="E524" t="s">
-        <v>1663</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="E525" t="s">
         <v>1701</v>
@@ -14242,20 +14245,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B490" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E490" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B489" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E489" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B499" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E499" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B491" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E491" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B492" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E492" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B493" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E493" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B494" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E494" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B489" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E489" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B488" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E488" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B498" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E498" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B490" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E490" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B491" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E491" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B492" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E492" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B493" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E493" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B10" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="E10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="B11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
@@ -15128,14 +15131,14 @@
     <hyperlink ref="E446" r:id="rId884" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
     <hyperlink ref="B447" r:id="rId885" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
     <hyperlink ref="E447" r:id="rId886" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
-    <hyperlink ref="B488" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
-    <hyperlink ref="E488" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
+    <hyperlink ref="B487" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
+    <hyperlink ref="E487" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
     <hyperlink ref="B449" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
     <hyperlink ref="E449" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
-    <hyperlink ref="B502" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
-    <hyperlink ref="E502" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
-    <hyperlink ref="B508" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
-    <hyperlink ref="E508" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="B501" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="E501" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="B507" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="E507" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
     <hyperlink ref="B452" r:id="rId895" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
     <hyperlink ref="E452" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
     <hyperlink ref="B453" r:id="rId897" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
@@ -15154,8 +15157,8 @@
     <hyperlink ref="E476" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
     <hyperlink ref="B477" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
     <hyperlink ref="E477" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
-    <hyperlink ref="B498" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
-    <hyperlink ref="E498" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
+    <hyperlink ref="B497" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
+    <hyperlink ref="E497" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
     <hyperlink ref="B479" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
     <hyperlink ref="E479" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
     <hyperlink ref="B480" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
@@ -15168,8 +15171,8 @@
     <hyperlink ref="E463" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
     <hyperlink ref="B464" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
     <hyperlink ref="E464" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
-    <hyperlink ref="B496" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
-    <hyperlink ref="E496" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
+    <hyperlink ref="B495" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
+    <hyperlink ref="E495" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
     <hyperlink ref="B466" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
     <hyperlink ref="E466" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
     <hyperlink ref="B448" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
@@ -15188,8 +15191,8 @@
     <hyperlink ref="E473" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
     <hyperlink ref="B3" r:id="rId945" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
     <hyperlink ref="E3" r:id="rId946" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
-    <hyperlink ref="B507" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
-    <hyperlink ref="E507" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
+    <hyperlink ref="B506" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
+    <hyperlink ref="E506" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
     <hyperlink ref="B5" r:id="rId949" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
     <hyperlink ref="E5" r:id="rId950" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
     <hyperlink ref="B6" r:id="rId951" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
@@ -15198,40 +15201,40 @@
     <hyperlink ref="E7" r:id="rId954" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
     <hyperlink ref="B8" r:id="rId955" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
     <hyperlink ref="E8" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
-    <hyperlink ref="B495" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
-    <hyperlink ref="E495" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
+    <hyperlink ref="B494" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
+    <hyperlink ref="E494" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
     <hyperlink ref="B465" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
     <hyperlink ref="E465" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
-    <hyperlink ref="B497" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
-    <hyperlink ref="E497" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
-    <hyperlink ref="B505" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
-    <hyperlink ref="E505" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
-    <hyperlink ref="B504" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
-    <hyperlink ref="E504" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
-    <hyperlink ref="B500" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
-    <hyperlink ref="E500" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
-    <hyperlink ref="B503" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
-    <hyperlink ref="E503" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
-    <hyperlink ref="B501" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
-    <hyperlink ref="E501" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
+    <hyperlink ref="B496" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
+    <hyperlink ref="E496" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
+    <hyperlink ref="B504" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
+    <hyperlink ref="E504" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
+    <hyperlink ref="B503" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
+    <hyperlink ref="E503" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
+    <hyperlink ref="B499" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
+    <hyperlink ref="E499" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
+    <hyperlink ref="B502" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
+    <hyperlink ref="E502" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
+    <hyperlink ref="B500" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
+    <hyperlink ref="E500" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
     <hyperlink ref="B450" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
     <hyperlink ref="E450" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
     <hyperlink ref="B451" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
     <hyperlink ref="E451" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
-    <hyperlink ref="B511" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
+    <hyperlink ref="B510" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
     <hyperlink ref="B458" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
     <hyperlink ref="E458" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
-    <hyperlink ref="B506" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
-    <hyperlink ref="E506" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
-    <hyperlink ref="B509" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
-    <hyperlink ref="E509" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
-    <hyperlink ref="B510" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
-    <hyperlink ref="E510" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="B505" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="E505" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="B508" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="E508" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="B509" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="E509" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
     <hyperlink ref="B4" r:id="rId986" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
     <hyperlink ref="E4" r:id="rId987" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
     <hyperlink ref="B467" r:id="rId988" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
     <hyperlink ref="E467" r:id="rId989" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
-    <hyperlink ref="E511" r:id="rId990" display="http://arenapsgm.ru/tproduct/805761453482-mafia-the-old-country-ps5" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="E510" r:id="rId990" display="http://arenapsgm.ru/tproduct/805761453482-mafia-the-old-country-ps5" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
     <hyperlink ref="B234" r:id="rId991" xr:uid="{5805A6F2-0EF9-1F4A-8D09-66C7671000F2}"/>
     <hyperlink ref="E234" r:id="rId992" xr:uid="{1BC12FBC-8C0F-0147-9432-6E8B7A216B9C}"/>
     <hyperlink ref="B469" r:id="rId993" xr:uid="{4D34D918-BCED-C543-B645-3BFFE3D127A1}"/>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4027EC26-7D72-5646-B247-C7DE1B48DF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE19B1-61E7-014A-ADC9-7E0DAFBB7074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="1703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1705">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -5129,6 +5129,12 @@
   </si>
   <si>
     <t>Dying Light: The Beast PS5</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/tproduct/931488400772-ultimate-ea-sports-fc-26-dlya-ps4ps5</t>
+  </si>
+  <si>
+    <t>FC 26 Аренда</t>
   </si>
 </sst>
 </file>
@@ -5547,10 +5553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E525"/>
+  <dimension ref="A1:E526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B481" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A525" sqref="A525:XFD525"/>
+    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A526" sqref="A526:XFD526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14241,6 +14247,14 @@
       </c>
       <c r="E525" t="s">
         <v>1701</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E526" t="s">
+        <v>1703</v>
       </c>
     </row>
   </sheetData>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE19B1-61E7-014A-ADC9-7E0DAFBB7074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC0334D-A6AA-1F42-8418-F9D54155EF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4867,9 +4867,6 @@
     <t>https://arenapsgm.ru/tproduct/284499310972-hollow-knight-silksong-ps4ps5</t>
   </si>
   <si>
-    <t>https://arenapsgm.ru/tproduct/432846042272-silent-hill-f-ps5</t>
-  </si>
-  <si>
     <t>NBA 2K26 for NBA 26</t>
   </si>
   <si>
@@ -5135,6 +5132,9 @@
   </si>
   <si>
     <t>FC 26 Аренда</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/silenthillf</t>
   </si>
 </sst>
 </file>
@@ -5555,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E526"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A526" sqref="A526:XFD526"/>
+    <sheetView tabSelected="1" topLeftCell="A496" zoomScale="134" workbookViewId="0">
+      <selection activeCell="A530" sqref="A530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E2" t="s">
         <v>1573</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>898</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>882</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>875</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>414</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>415</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>416</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>421</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>423</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>425</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>426</v>
@@ -6021,11 +6021,11 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -6047,7 +6047,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>432</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>435</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>438</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>452</v>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>453</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>455</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>456</v>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>458</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>459</v>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>460</v>
@@ -6571,7 +6571,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>463</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>466</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>467</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>469</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>470</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>471</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>472</v>
@@ -6758,7 +6758,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>474</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>477</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>478</v>
@@ -6843,7 +6843,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>479</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>480</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>481</v>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>482</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>483</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>497</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>499</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>502</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>515</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>518</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>523</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>524</v>
@@ -7659,7 +7659,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>527</v>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>534</v>
@@ -7812,7 +7812,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>536</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>543</v>
@@ -7965,7 +7965,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>545</v>
@@ -8067,7 +8067,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>551</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>555</v>
@@ -8271,7 +8271,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>563</v>
@@ -8424,7 +8424,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>572</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>578</v>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>581</v>
@@ -8696,7 +8696,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>588</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>589</v>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>595</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>599</v>
@@ -9019,7 +9019,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>607</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>609</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>611</v>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>614</v>
@@ -9223,7 +9223,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>619</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>620</v>
@@ -9274,7 +9274,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>622</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>627</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>634</v>
@@ -9495,7 +9495,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>635</v>
@@ -9580,7 +9580,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>639</v>
@@ -9614,7 +9614,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>641</v>
@@ -9716,7 +9716,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>647</v>
@@ -13116,7 +13116,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>846</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>847</v>
@@ -13978,7 +13978,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>889</v>
@@ -14012,7 +14012,7 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>886</v>
@@ -14029,7 +14029,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>895</v>
@@ -14131,7 +14131,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="E511" t="s">
         <v>1572</v>
@@ -14203,10 +14203,10 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E520" t="s">
         <v>1616</v>
-      </c>
-      <c r="E520" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
@@ -14219,23 +14219,23 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1605</v>
+        <v>1662</v>
       </c>
       <c r="E522" t="s">
-        <v>1615</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>1663</v>
+        <v>1698</v>
       </c>
       <c r="E523" t="s">
-        <v>1662</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="E524" t="s">
         <v>1700</v>
@@ -14243,18 +14243,18 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E525" t="s">
         <v>1702</v>
-      </c>
-      <c r="E525" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E526" t="s">
         <v>1704</v>
-      </c>
-      <c r="E526" t="s">
-        <v>1703</v>
       </c>
     </row>
   </sheetData>

--- a/store-8370478-Vse_igri-202507290225_fixed.xlsx
+++ b/store-8370478-Vse_igri-202507290225_fixed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmitrijsmit/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC0334D-A6AA-1F42-8418-F9D54155EF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AC39AF-D3E7-2241-918E-3E447909BDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="1705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1711">
   <si>
     <t>Star Wars Outlaws PS5</t>
   </si>
@@ -5135,6 +5135,24 @@
   </si>
   <si>
     <t>https://arenapsgm.ru/silenthillf</t>
+  </si>
+  <si>
+    <t>SILENT HILL f Аренда</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/tproduct/432846042272-silent-hill-f-ps5</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/p2p3/tproduct/630170732132-silent-hill-f-ps5-navsegda</t>
+  </si>
+  <si>
+    <t>SILENT HILL f Делюкс  ПОКУПКА</t>
+  </si>
+  <si>
+    <t>SILENT HILL f Стандарт ПОКУПКА</t>
+  </si>
+  <si>
+    <t>https://arenapsgm.ru/p2p3/tproduct/376936058152-silent-hill-f-silent-hill-f-deluxe-editi</t>
   </si>
 </sst>
 </file>
@@ -5553,10 +5571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E526"/>
+  <dimension ref="A1:E529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A530" sqref="A530"/>
+    <sheetView tabSelected="1" topLeftCell="B497" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E534" sqref="E534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14255,6 +14273,30 @@
       </c>
       <c r="E526" t="s">
         <v>1704</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1710</v>
       </c>
     </row>
   </sheetData>
